--- a/Exercise 1/Results/1000x1000.xlsx
+++ b/Exercise 1/Results/1000x1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunet-my.sharepoint.com/personal/wsav4_lunet_lboro_ac_uk/Documents/Year 4/Sem 1/Programming Multi-many-core Systems/CWS/CW1/22WSD530-CW1/Exercise 1/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="11_F25DC773A252ABDACC1048DF61DE79905BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD363093-538B-40F4-818F-884ECA945476}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="11_F25DC773A252ABDACC1048DF61DE79905BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7436D81F-2986-42D4-88BE-68AFF4974758}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -397,6 +397,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,23 +418,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,37 +548,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9444931140617008</c:v>
+                  <c:v>2.0302002458761415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6232530195127031</c:v>
+                  <c:v>2.8318125475330493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0852570646362958</c:v>
+                  <c:v>3.5141200329386062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5803307924262859</c:v>
+                  <c:v>4.0610499313094035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1379339397064232</c:v>
+                  <c:v>4.4740432255672893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5180421276635316</c:v>
+                  <c:v>4.833920428877116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9189513224137915</c:v>
+                  <c:v>5.1947359997112796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0358379505385802</c:v>
+                  <c:v>5.4403655749021613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1109987989517709</c:v>
+                  <c:v>5.5311715148480474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9199464527216596</c:v>
+                  <c:v>5.4645144157846115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2492867504918399</c:v>
+                  <c:v>5.6132351815192898</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.2300819714972668</c:v>
@@ -635,40 +629,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8348623853211012</c:v>
+                  <c:v>1.8518518518518516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5423728813559325</c:v>
+                  <c:v>2.5862068965517242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1496062992125982</c:v>
+                  <c:v>3.2258064516129039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6764705882352948</c:v>
+                  <c:v>3.7878787878787885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1379310344827589</c:v>
+                  <c:v>4.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5454545454545459</c:v>
+                  <c:v>4.7297297297297307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9079754601226995</c:v>
+                  <c:v>5.1282051282051295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.232558139534885</c:v>
+                  <c:v>5.4878048780487818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5248618784530397</c:v>
+                  <c:v>5.8139534883720945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7894736842105274</c:v>
+                  <c:v>6.1111111111111134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0301507537688455</c:v>
+                  <c:v>6.382978723404257</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2500000000000009</c:v>
+                  <c:v>6.6326530612244907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,16 +1550,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1591,6 +1585,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,42 +1874,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A3" s="1" t="s">
@@ -1965,37 +1963,37 @@
         <v>7753786800</v>
       </c>
       <c r="C4" s="8">
-        <v>3897394000</v>
+        <v>3612304600</v>
       </c>
       <c r="D4" s="8">
-        <v>2897623000</v>
+        <v>2599021500</v>
       </c>
       <c r="E4" s="8">
-        <v>2588427800</v>
+        <v>2161217100</v>
       </c>
       <c r="F4" s="8">
-        <v>2037104300</v>
+        <v>1873986200</v>
       </c>
       <c r="G4" s="8">
-        <v>2101887800</v>
+        <v>1647591400</v>
       </c>
       <c r="H4" s="8">
-        <v>1654012500</v>
+        <v>1569801300</v>
       </c>
       <c r="I4" s="8">
-        <v>1655637900</v>
+        <v>1470066600</v>
       </c>
       <c r="J4" s="8">
-        <v>1482410500</v>
+        <v>1366319500</v>
       </c>
       <c r="K4" s="8">
-        <v>1456122300</v>
+        <v>1314482200</v>
       </c>
       <c r="L4" s="8">
-        <v>1532022400</v>
+        <v>1328445300</v>
       </c>
       <c r="M4" s="8">
-        <v>1502497500</v>
+        <v>1451116900</v>
       </c>
       <c r="N4" s="9">
         <v>1409247200</v>
@@ -2009,13 +2007,13 @@
       <c r="R4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2027,37 +2025,37 @@
         <v>8326290500</v>
       </c>
       <c r="C5">
-        <v>3974773600</v>
+        <v>3833742600</v>
       </c>
       <c r="D5">
-        <v>2952634600</v>
+        <v>2697756400</v>
       </c>
       <c r="E5">
-        <v>2410833800</v>
+        <v>2216068400</v>
       </c>
       <c r="F5">
-        <v>2008630000</v>
+        <v>1902887700</v>
       </c>
       <c r="G5">
-        <v>1765275100</v>
+        <v>1652578500</v>
       </c>
       <c r="H5">
-        <v>1671698900</v>
+        <v>1513948700</v>
       </c>
       <c r="I5">
-        <v>1518657900</v>
+        <v>1422192800</v>
       </c>
       <c r="J5">
-        <v>1513437600</v>
+        <v>1426184500</v>
       </c>
       <c r="K5">
-        <v>1444343100</v>
+        <v>1288551100</v>
       </c>
       <c r="L5">
-        <v>1519388700</v>
+        <v>1370345000</v>
       </c>
       <c r="M5">
-        <v>1552534700</v>
+        <v>1393271800</v>
       </c>
       <c r="N5" s="11">
         <v>1390273700</v>
@@ -2073,7 +2071,7 @@
         <f>Q5/1000000000</f>
         <v>7.0192855820000002</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="23">
         <f>$Q$5/Q5</f>
         <v>1</v>
       </c>
@@ -2081,8 +2079,8 @@
         <f>1/((1-$V$5)+$V$5/$P5)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="26">
-        <v>0.91</v>
+      <c r="V5" s="22">
+        <v>0.92</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2093,37 +2091,37 @@
         <v>7503396900</v>
       </c>
       <c r="C6">
-        <v>3917001400</v>
+        <v>3720047500</v>
       </c>
       <c r="D6">
-        <v>2854354900</v>
+        <v>2665866100</v>
       </c>
       <c r="E6">
-        <v>2337293800</v>
+        <v>2144242600</v>
       </c>
       <c r="F6">
-        <v>1990267800</v>
+        <v>1861019300</v>
       </c>
       <c r="G6">
-        <v>2159261100</v>
+        <v>1717382900</v>
       </c>
       <c r="H6">
-        <v>1587208000</v>
+        <v>1645596500</v>
       </c>
       <c r="I6">
-        <v>1561802700</v>
+        <v>1602711400</v>
       </c>
       <c r="J6">
-        <v>1405240200</v>
+        <v>1304510200</v>
       </c>
       <c r="K6">
-        <v>1473339000</v>
+        <v>1315481200</v>
       </c>
       <c r="L6">
-        <v>1496715900</v>
+        <v>1309496700</v>
       </c>
       <c r="M6">
-        <v>1461569300</v>
+        <v>1371330200</v>
       </c>
       <c r="N6" s="11">
         <v>1507963800</v>
@@ -2133,19 +2131,19 @@
       </c>
       <c r="Q6" s="16">
         <f>SUM(C$4:C$103)/100</f>
-        <v>3609827945</v>
+        <v>3457435096</v>
       </c>
       <c r="R6" s="16">
         <f t="shared" ref="R6:R17" si="0">Q6/1000000000</f>
-        <v>3.6098279450000001</v>
-      </c>
-      <c r="S6" s="29">
+        <v>3.4574350960000002</v>
+      </c>
+      <c r="S6" s="24">
         <f t="shared" ref="S6:S17" si="1">$Q$5/Q6</f>
-        <v>1.9444931140617008</v>
+        <v>2.0302002458761415</v>
       </c>
       <c r="T6" s="19">
         <f t="shared" ref="T6:T17" si="2">1/((1-$V$5)+$V$5/$P6)</f>
-        <v>1.8348623853211012</v>
+        <v>1.8518518518518516</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2156,37 +2154,37 @@
         <v>7238166800</v>
       </c>
       <c r="C7">
-        <v>3740126200</v>
+        <v>3737998700</v>
       </c>
       <c r="D7">
-        <v>2857867200</v>
+        <v>2589074000</v>
       </c>
       <c r="E7">
-        <v>2295375100</v>
+        <v>2142266700</v>
       </c>
       <c r="F7">
-        <v>2137771600</v>
+        <v>1808162900</v>
       </c>
       <c r="G7">
-        <v>1973566800</v>
+        <v>1742337800</v>
       </c>
       <c r="H7">
-        <v>1615047600</v>
+        <v>1665544800</v>
       </c>
       <c r="I7">
-        <v>1464976500</v>
+        <v>1397260400</v>
       </c>
       <c r="J7">
-        <v>1466133100</v>
+        <v>1352381500</v>
       </c>
       <c r="K7">
-        <v>1340387200</v>
+        <v>1346396800</v>
       </c>
       <c r="L7">
-        <v>1486672200</v>
+        <v>1281569700</v>
       </c>
       <c r="M7">
-        <v>1587419600</v>
+        <v>1292541100</v>
       </c>
       <c r="N7" s="11">
         <v>1368338400</v>
@@ -2196,19 +2194,19 @@
       </c>
       <c r="Q7" s="16">
         <f>SUM(D$4:D$103)/100</f>
-        <v>2675794340</v>
+        <v>2478725362</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
-        <v>2.6757943399999999</v>
-      </c>
-      <c r="S7" s="29">
+        <v>2.478725362</v>
+      </c>
+      <c r="S7" s="24">
         <f t="shared" si="1"/>
-        <v>2.6232530195127031</v>
+        <v>2.8318125475330493</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" si="2"/>
-        <v>2.5423728813559325</v>
+        <v>2.5862068965517242</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2219,37 +2217,37 @@
         <v>6922308500</v>
       </c>
       <c r="C8">
-        <v>3893261400</v>
+        <v>3705056800</v>
       </c>
       <c r="D8">
-        <v>2938137000</v>
+        <v>2673821100</v>
       </c>
       <c r="E8">
-        <v>2414744000</v>
+        <v>2173184600</v>
       </c>
       <c r="F8">
-        <v>2087049000</v>
+        <v>1915872900</v>
       </c>
       <c r="G8">
-        <v>2003656300</v>
+        <v>1678533800</v>
       </c>
       <c r="H8">
-        <v>1797480600</v>
+        <v>1489038100</v>
       </c>
       <c r="I8">
-        <v>1527441900</v>
+        <v>1458097700</v>
       </c>
       <c r="J8">
-        <v>1458604400</v>
+        <v>1357368200</v>
       </c>
       <c r="K8">
-        <v>1533018800</v>
+        <v>1391278400</v>
       </c>
       <c r="L8">
-        <v>1373379600</v>
+        <v>1312488300</v>
       </c>
       <c r="M8">
-        <v>1527333100</v>
+        <v>1344401800</v>
       </c>
       <c r="N8" s="11">
         <v>1344422400</v>
@@ -2259,19 +2257,19 @@
       </c>
       <c r="Q8" s="16">
         <f>SUM(E$4:E$103)/100</f>
-        <v>2275105586</v>
+        <v>1997451856</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>2.275105586</v>
-      </c>
-      <c r="S8" s="29">
+        <v>1.9974518560000001</v>
+      </c>
+      <c r="S8" s="24">
         <f t="shared" si="1"/>
-        <v>3.0852570646362958</v>
+        <v>3.5141200329386062</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="2"/>
-        <v>3.1496062992125982</v>
+        <v>3.2258064516129039</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2282,37 +2280,37 @@
         <v>7038467900</v>
       </c>
       <c r="C9">
-        <v>3938512300</v>
+        <v>3630286400</v>
       </c>
       <c r="D9">
-        <v>2887831100</v>
+        <v>2897248800</v>
       </c>
       <c r="E9">
-        <v>2422863000</v>
+        <v>2186150900</v>
       </c>
       <c r="F9">
-        <v>1999988200</v>
+        <v>1861996500</v>
       </c>
       <c r="G9">
-        <v>1939150700</v>
+        <v>1644599700</v>
       </c>
       <c r="H9">
-        <v>1698161300</v>
+        <v>1518935900</v>
       </c>
       <c r="I9">
-        <v>1471062500</v>
+        <v>1360361800</v>
       </c>
       <c r="J9">
-        <v>1455106200</v>
+        <v>1282568000</v>
       </c>
       <c r="K9">
-        <v>1400922600</v>
+        <v>1514947200</v>
       </c>
       <c r="L9">
-        <v>1463965800</v>
+        <v>1311491900</v>
       </c>
       <c r="M9">
-        <v>1581171900</v>
+        <v>1240680100</v>
       </c>
       <c r="N9" s="11">
         <v>1473059200</v>
@@ -2322,19 +2320,19 @@
       </c>
       <c r="Q9" s="16">
         <f>SUM(F$4:F$103)/100</f>
-        <v>1960513145</v>
+        <v>1728441093</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" si="0"/>
-        <v>1.960513145</v>
-      </c>
-      <c r="S9" s="29">
+        <v>1.728441093</v>
+      </c>
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
-        <v>3.5803307924262859</v>
+        <v>4.0610499313094035</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="2"/>
-        <v>3.6764705882352948</v>
+        <v>3.7878787878787885</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2345,37 +2343,37 @@
         <v>7499931600</v>
       </c>
       <c r="C10">
-        <v>3851290200</v>
+        <v>3415892400</v>
       </c>
       <c r="D10">
-        <v>2916171900</v>
+        <v>2635920600</v>
       </c>
       <c r="E10">
-        <v>2518280200</v>
+        <v>2078438500</v>
       </c>
       <c r="F10">
-        <v>2073952500</v>
+        <v>1848056000</v>
       </c>
       <c r="G10">
-        <v>1812209000</v>
+        <v>1577778300</v>
       </c>
       <c r="H10">
-        <v>1788333600</v>
+        <v>1497992000</v>
       </c>
       <c r="I10">
-        <v>1784201800</v>
+        <v>1504972700</v>
       </c>
       <c r="J10">
-        <v>1394794300</v>
+        <v>1388285300</v>
       </c>
       <c r="K10">
-        <v>1568884500</v>
+        <v>1357368600</v>
       </c>
       <c r="L10">
-        <v>1579410700</v>
+        <v>1288552800</v>
       </c>
       <c r="M10">
-        <v>1399154500</v>
+        <v>1420200800</v>
       </c>
       <c r="N10" s="11">
         <v>1572855700</v>
@@ -2385,19 +2383,19 @@
       </c>
       <c r="Q10" s="16">
         <f>SUM(G$4:G$103)/100</f>
-        <v>1696326158</v>
+        <v>1568890873</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="0"/>
-        <v>1.696326158</v>
-      </c>
-      <c r="S10" s="29">
+        <v>1.568890873</v>
+      </c>
+      <c r="S10" s="24">
         <f t="shared" si="1"/>
-        <v>4.1379339397064232</v>
+        <v>4.4740432255672893</v>
       </c>
       <c r="T10" s="19">
         <f t="shared" si="2"/>
-        <v>4.1379310344827589</v>
+        <v>4.2857142857142865</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2408,37 +2406,37 @@
         <v>7139633600</v>
       </c>
       <c r="C11">
-        <v>3850138600</v>
+        <v>3328095200</v>
       </c>
       <c r="D11">
-        <v>2876787900</v>
+        <v>2781556900</v>
       </c>
       <c r="E11">
-        <v>2594684300</v>
+        <v>2018598100</v>
       </c>
       <c r="F11">
-        <v>2143714700</v>
+        <v>1877954500</v>
       </c>
       <c r="G11">
-        <v>1941821000</v>
+        <v>1739364400</v>
       </c>
       <c r="H11">
-        <v>1749021800</v>
+        <v>1622658400</v>
       </c>
       <c r="I11">
-        <v>1541615600</v>
+        <v>1409229700</v>
       </c>
       <c r="J11">
-        <v>1477047600</v>
+        <v>1278578000</v>
       </c>
       <c r="K11">
-        <v>1450120000</v>
+        <v>1465080200</v>
       </c>
       <c r="L11">
-        <v>1318442300</v>
+        <v>1313484700</v>
       </c>
       <c r="M11">
-        <v>1412158100</v>
+        <v>1315480800</v>
       </c>
       <c r="N11" s="11">
         <v>1312504700</v>
@@ -2448,19 +2446,19 @@
       </c>
       <c r="Q11" s="16">
         <f>SUM(H$4:H$103)/100</f>
-        <v>1553612247</v>
+        <v>1452089600</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="0"/>
-        <v>1.553612247</v>
-      </c>
-      <c r="S11" s="29">
+        <v>1.4520896000000001</v>
+      </c>
+      <c r="S11" s="24">
         <f t="shared" si="1"/>
-        <v>4.5180421276635316</v>
+        <v>4.833920428877116</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
+        <v>4.7297297297297307</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2471,37 +2469,37 @@
         <v>6888100000</v>
       </c>
       <c r="C12">
-        <v>3754674500</v>
+        <v>3413872700</v>
       </c>
       <c r="D12">
-        <v>2904735000</v>
+        <v>2869324300</v>
       </c>
       <c r="E12">
-        <v>2346681600</v>
+        <v>2194127300</v>
       </c>
       <c r="F12">
-        <v>1988702200</v>
+        <v>1776222800</v>
       </c>
       <c r="G12">
-        <v>1998114700</v>
+        <v>1646569700</v>
       </c>
       <c r="H12">
-        <v>1785705100</v>
+        <v>1450120600</v>
       </c>
       <c r="I12">
-        <v>1581976400</v>
+        <v>1454090800</v>
       </c>
       <c r="J12">
-        <v>1406280700</v>
+        <v>1350386500</v>
       </c>
       <c r="K12">
-        <v>1394617700</v>
+        <v>1408232500</v>
       </c>
       <c r="L12">
-        <v>1417391400</v>
+        <v>1357369700</v>
       </c>
       <c r="M12">
-        <v>1408731100</v>
+        <v>1231704000</v>
       </c>
       <c r="N12" s="11">
         <v>1500156900</v>
@@ -2511,19 +2509,19 @@
       </c>
       <c r="Q12" s="16">
         <f>SUM(I$4:I$103)/100</f>
-        <v>1426988218</v>
+        <v>1351230473</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="0"/>
-        <v>1.426988218</v>
-      </c>
-      <c r="S12" s="29">
+        <v>1.351230473</v>
+      </c>
+      <c r="S12" s="24">
         <f t="shared" si="1"/>
-        <v>4.9189513224137915</v>
+        <v>5.1947359997112796</v>
       </c>
       <c r="T12" s="19">
         <f t="shared" si="2"/>
-        <v>4.9079754601226995</v>
+        <v>5.1282051282051295</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2534,37 +2532,37 @@
         <v>6896807600</v>
       </c>
       <c r="C13">
-        <v>3788495300</v>
+        <v>3381923600</v>
       </c>
       <c r="D13">
-        <v>2951807700</v>
+        <v>2503326300</v>
       </c>
       <c r="E13">
-        <v>2379714900</v>
+        <v>2131296300</v>
       </c>
       <c r="F13">
-        <v>1945794800</v>
+        <v>1855057000</v>
       </c>
       <c r="G13">
-        <v>1789870900</v>
+        <v>1647590000</v>
       </c>
       <c r="H13">
-        <v>1608010000</v>
+        <v>1628642200</v>
       </c>
       <c r="I13">
-        <v>1480961500</v>
+        <v>1404243800</v>
       </c>
       <c r="J13">
-        <v>1460134300</v>
+        <v>1295533900</v>
       </c>
       <c r="K13">
-        <v>1417559900</v>
+        <v>1389281400</v>
       </c>
       <c r="L13">
-        <v>1554982300</v>
+        <v>1276583700</v>
       </c>
       <c r="M13">
-        <v>1522976100</v>
+        <v>1326449900</v>
       </c>
       <c r="N13" s="11">
         <v>1444730600</v>
@@ -2574,19 +2572,19 @@
       </c>
       <c r="Q13" s="16">
         <f>SUM(J$4:J$103)/100</f>
-        <v>1393866453</v>
+        <v>1290223145</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="0"/>
-        <v>1.393866453</v>
-      </c>
-      <c r="S13" s="29">
+        <v>1.2902231449999999</v>
+      </c>
+      <c r="S13" s="24">
         <f t="shared" si="1"/>
-        <v>5.0358379505385802</v>
+        <v>5.4403655749021613</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="2"/>
-        <v>5.232558139534885</v>
+        <v>5.4878048780487818</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -2597,37 +2595,37 @@
         <v>6902952000</v>
       </c>
       <c r="C14">
-        <v>3922329100</v>
+        <v>3380978000</v>
       </c>
       <c r="D14">
-        <v>2932660300</v>
+        <v>2444460400</v>
       </c>
       <c r="E14">
-        <v>2457671700</v>
+        <v>2096390200</v>
       </c>
       <c r="F14">
-        <v>1975463300</v>
+        <v>1823096800</v>
       </c>
       <c r="G14">
-        <v>1978271200</v>
+        <v>1679504900</v>
       </c>
       <c r="H14">
-        <v>1625199900</v>
+        <v>1520950300</v>
       </c>
       <c r="I14">
-        <v>1684615500</v>
+        <v>1482034800</v>
       </c>
       <c r="J14">
-        <v>1386292000</v>
+        <v>1346378000</v>
       </c>
       <c r="K14">
-        <v>1414234400</v>
+        <v>1486023900</v>
       </c>
       <c r="L14">
-        <v>1380027500</v>
+        <v>1320467000</v>
       </c>
       <c r="M14">
-        <v>1564396400</v>
+        <v>1299522200</v>
       </c>
       <c r="N14" s="11">
         <v>1341840400</v>
@@ -2637,19 +2635,19 @@
       </c>
       <c r="Q14" s="16">
         <f>SUM(K$4:K$103)/100</f>
-        <v>1373368662</v>
+        <v>1269041389</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="0"/>
-        <v>1.3733686620000001</v>
-      </c>
-      <c r="S14" s="29">
+        <v>1.2690413890000001</v>
+      </c>
+      <c r="S14" s="24">
         <f t="shared" si="1"/>
-        <v>5.1109987989517709</v>
+        <v>5.5311715148480474</v>
       </c>
       <c r="T14" s="19">
         <f t="shared" si="2"/>
-        <v>5.5248618784530397</v>
+        <v>5.8139534883720945</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2660,37 +2658,37 @@
         <v>6959684800</v>
       </c>
       <c r="C15">
-        <v>3564783300</v>
+        <v>3556484200</v>
       </c>
       <c r="D15">
-        <v>2800110600</v>
+        <v>2374645900</v>
       </c>
       <c r="E15">
-        <v>2347008200</v>
+        <v>2022587200</v>
       </c>
       <c r="F15">
-        <v>1929345400</v>
+        <v>1887921700</v>
       </c>
       <c r="G15">
-        <v>1722408300</v>
+        <v>1638615400</v>
       </c>
       <c r="H15">
-        <v>1522026100</v>
+        <v>1552820400</v>
       </c>
       <c r="I15">
-        <v>1539911900</v>
+        <v>1504972400</v>
       </c>
       <c r="J15">
-        <v>1436156100</v>
+        <v>1340413200</v>
       </c>
       <c r="K15">
-        <v>1502040600</v>
+        <v>1361357500</v>
       </c>
       <c r="L15">
-        <v>1534486900</v>
+        <v>1271598200</v>
       </c>
       <c r="M15">
-        <v>1536254200</v>
+        <v>1269602100</v>
       </c>
       <c r="N15" s="11">
         <v>1544406800</v>
@@ -2700,19 +2698,19 @@
       </c>
       <c r="Q15" s="16">
         <f>SUM(L$4:L$103)/100</f>
-        <v>1426699589</v>
+        <v>1284521377</v>
       </c>
       <c r="R15" s="16">
         <f t="shared" si="0"/>
-        <v>1.426699589</v>
-      </c>
-      <c r="S15" s="29">
+        <v>1.2845213769999999</v>
+      </c>
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
-        <v>4.9199464527216596</v>
+        <v>5.4645144157846115</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="2"/>
-        <v>5.7894736842105274</v>
+        <v>6.1111111111111134</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -2723,37 +2721,37 @@
         <v>7067810600</v>
       </c>
       <c r="C16">
-        <v>3576219500</v>
+        <v>3417855600</v>
       </c>
       <c r="D16">
-        <v>2850057000</v>
+        <v>2475401800</v>
       </c>
       <c r="E16">
-        <v>2494007400</v>
+        <v>2032561400</v>
       </c>
       <c r="F16">
-        <v>2096120800</v>
+        <v>1816146200</v>
       </c>
       <c r="G16">
-        <v>1745331300</v>
+        <v>1673521400</v>
       </c>
       <c r="H16">
-        <v>1676574600</v>
+        <v>1478045000</v>
       </c>
       <c r="I16">
-        <v>1601101400</v>
+        <v>1540877100</v>
       </c>
       <c r="J16">
-        <v>1411240600</v>
+        <v>1319469300</v>
       </c>
       <c r="K16">
-        <v>1347393600</v>
+        <v>1469069400</v>
       </c>
       <c r="L16">
-        <v>1443773800</v>
+        <v>1318448800</v>
       </c>
       <c r="M16">
-        <v>1396979800</v>
+        <v>1289551500</v>
       </c>
       <c r="N16" s="11">
         <v>1519389000</v>
@@ -2763,19 +2761,19 @@
       </c>
       <c r="Q16" s="16">
         <f>SUM(M$4:M$103)/100</f>
-        <v>1337188444</v>
+        <v>1250488418</v>
       </c>
       <c r="R16" s="16">
         <f t="shared" si="0"/>
-        <v>1.3371884439999999</v>
-      </c>
-      <c r="S16" s="29">
+        <v>1.250488418</v>
+      </c>
+      <c r="S16" s="24">
         <f t="shared" si="1"/>
-        <v>5.2492867504918399</v>
+        <v>5.6132351815192898</v>
       </c>
       <c r="T16" s="19">
         <f t="shared" si="2"/>
-        <v>6.0301507537688455</v>
+        <v>6.382978723404257</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2786,37 +2784,37 @@
         <v>6882864800</v>
       </c>
       <c r="C17">
-        <v>3480016200</v>
+        <v>3390928300</v>
       </c>
       <c r="D17">
-        <v>2925199200</v>
+        <v>2431492800</v>
       </c>
       <c r="E17">
-        <v>2467006800</v>
+        <v>1967734300</v>
       </c>
       <c r="F17">
-        <v>2048108800</v>
+        <v>1878947200</v>
       </c>
       <c r="G17">
-        <v>1797798000</v>
+        <v>1634626300</v>
       </c>
       <c r="H17">
-        <v>1550848500</v>
+        <v>1545864900</v>
       </c>
       <c r="I17">
-        <v>1574061700</v>
+        <v>1531901900</v>
       </c>
       <c r="J17">
-        <v>1471773900</v>
+        <v>1350378400</v>
       </c>
       <c r="K17">
-        <v>1395285100</v>
+        <v>1366345000</v>
       </c>
       <c r="L17">
-        <v>1509960200</v>
+        <v>1261599400</v>
       </c>
       <c r="M17">
-        <v>1351383100</v>
+        <v>1254621200</v>
       </c>
       <c r="N17" s="11">
         <v>1416674500</v>
@@ -2832,13 +2830,13 @@
         <f t="shared" si="0"/>
         <v>1.342098579</v>
       </c>
-      <c r="S17" s="30">
+      <c r="S17" s="25">
         <f t="shared" si="1"/>
         <v>5.2300819714972668</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="2"/>
-        <v>6.2500000000000009</v>
+        <v>6.6326530612244907</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2849,37 +2847,37 @@
         <v>6925471500</v>
       </c>
       <c r="C18">
-        <v>3585994900</v>
+        <v>3337047400</v>
       </c>
       <c r="D18">
-        <v>2521761400</v>
+        <v>2364646000</v>
       </c>
       <c r="E18">
-        <v>2441472800</v>
+        <v>1895928000</v>
       </c>
       <c r="F18">
-        <v>2084056400</v>
+        <v>1829090700</v>
       </c>
       <c r="G18">
-        <v>1701222500</v>
+        <v>1701447500</v>
       </c>
       <c r="H18">
-        <v>1597630500</v>
+        <v>1495001200</v>
       </c>
       <c r="I18">
-        <v>1554642100</v>
+        <v>1507964300</v>
       </c>
       <c r="J18">
-        <v>1389323900</v>
+        <v>1277581400</v>
       </c>
       <c r="K18">
-        <v>1381810600</v>
+        <v>1319469900</v>
       </c>
       <c r="L18">
-        <v>1465760100</v>
+        <v>1236691300</v>
       </c>
       <c r="M18">
-        <v>1355391600</v>
+        <v>1255640100</v>
       </c>
       <c r="N18" s="11">
         <v>1488365500</v>
@@ -2893,37 +2891,37 @@
         <v>7586011600</v>
       </c>
       <c r="C19">
-        <v>3448957400</v>
+        <v>3341033300</v>
       </c>
       <c r="D19">
-        <v>2515245900</v>
+        <v>2415510400</v>
       </c>
       <c r="E19">
-        <v>2463998800</v>
+        <v>1986684700</v>
       </c>
       <c r="F19">
-        <v>2085881200</v>
+        <v>1870968800</v>
       </c>
       <c r="G19">
-        <v>1794757800</v>
+        <v>1664520900</v>
       </c>
       <c r="H19">
-        <v>1602725800</v>
+        <v>1543870000</v>
       </c>
       <c r="I19">
-        <v>1468629300</v>
+        <v>1474055400</v>
       </c>
       <c r="J19">
-        <v>1409771000</v>
+        <v>1372328000</v>
       </c>
       <c r="K19">
-        <v>1356371200</v>
+        <v>1280573200</v>
       </c>
       <c r="L19">
-        <v>1670568700</v>
+        <v>1316478500</v>
       </c>
       <c r="M19">
-        <v>1329444400</v>
+        <v>1280573500</v>
       </c>
       <c r="N19" s="11">
         <v>1382104000</v>
@@ -2937,37 +2935,37 @@
         <v>7172861600</v>
       </c>
       <c r="C20">
-        <v>3486319000</v>
+        <v>3385913600</v>
       </c>
       <c r="D20">
-        <v>2521761300</v>
+        <v>2469367100</v>
       </c>
       <c r="E20">
-        <v>2437201200</v>
+        <v>1947789600</v>
       </c>
       <c r="F20">
-        <v>2070700500</v>
+        <v>1867999800</v>
       </c>
       <c r="G20">
-        <v>1748364300</v>
+        <v>1649585500</v>
       </c>
       <c r="H20">
-        <v>1583504800</v>
+        <v>1560823900</v>
       </c>
       <c r="I20">
-        <v>1554839800</v>
+        <v>1536886500</v>
       </c>
       <c r="J20">
-        <v>1449185100</v>
+        <v>1293534500</v>
       </c>
       <c r="K20">
-        <v>1416283500</v>
+        <v>1273591900</v>
       </c>
       <c r="L20">
-        <v>1739814000</v>
+        <v>1321463400</v>
       </c>
       <c r="M20">
-        <v>1376354800</v>
+        <v>1255639300</v>
       </c>
       <c r="N20" s="11">
         <v>1330765400</v>
@@ -2981,37 +2979,37 @@
         <v>6871934700</v>
       </c>
       <c r="C21">
-        <v>3655787800</v>
+        <v>3407906800</v>
       </c>
       <c r="D21">
-        <v>2537528500</v>
+        <v>2467396400</v>
       </c>
       <c r="E21">
-        <v>2480870600</v>
+        <v>1933826900</v>
       </c>
       <c r="F21">
-        <v>2136279300</v>
+        <v>1825141000</v>
       </c>
       <c r="G21">
-        <v>1795740600</v>
+        <v>1653573900</v>
       </c>
       <c r="H21">
-        <v>1623561800</v>
+        <v>1521928300</v>
       </c>
       <c r="I21">
-        <v>1465095500</v>
+        <v>1504973700</v>
       </c>
       <c r="J21">
-        <v>1400526700</v>
+        <v>1380307700</v>
       </c>
       <c r="K21">
-        <v>1354370700</v>
+        <v>1324455700</v>
       </c>
       <c r="L21">
-        <v>1652066000</v>
+        <v>1300520500</v>
       </c>
       <c r="M21">
-        <v>1436235300</v>
+        <v>1320441000</v>
       </c>
       <c r="N21" s="11">
         <v>1406077600</v>
@@ -3025,37 +3023,37 @@
         <v>6920034300</v>
       </c>
       <c r="C22">
-        <v>3700414000</v>
+        <v>3410875300</v>
       </c>
       <c r="D22">
-        <v>2635947100</v>
+        <v>2413519800</v>
       </c>
       <c r="E22">
-        <v>2327255900</v>
+        <v>2053505200</v>
       </c>
       <c r="F22">
-        <v>2115333100</v>
+        <v>1862037200</v>
       </c>
       <c r="G22">
-        <v>1651111600</v>
+        <v>1635623400</v>
       </c>
       <c r="H22">
-        <v>1636895900</v>
+        <v>1513949000</v>
       </c>
       <c r="I22">
-        <v>1524729000</v>
+        <v>1408230600</v>
       </c>
       <c r="J22">
-        <v>1456105300</v>
+        <v>1332434800</v>
       </c>
       <c r="K22">
-        <v>1386330500</v>
+        <v>1244665600</v>
       </c>
       <c r="L22">
-        <v>1821014900</v>
+        <v>1290547300</v>
       </c>
       <c r="M22">
-        <v>1368359300</v>
+        <v>1337421700</v>
       </c>
       <c r="N22" s="11">
         <v>1411493400</v>
@@ -3069,37 +3067,37 @@
         <v>6918226800</v>
       </c>
       <c r="C23">
-        <v>3468189500</v>
+        <v>3421841700</v>
       </c>
       <c r="D23">
-        <v>2620866200</v>
+        <v>2490362000</v>
       </c>
       <c r="E23">
-        <v>2263854900</v>
+        <v>2202108600</v>
       </c>
       <c r="F23">
-        <v>2250014200</v>
+        <v>1804147400</v>
       </c>
       <c r="G23">
-        <v>1639624200</v>
+        <v>1737326900</v>
       </c>
       <c r="H23">
-        <v>1647173900</v>
+        <v>1490014100</v>
       </c>
       <c r="I23">
-        <v>1452575600</v>
+        <v>1381286200</v>
       </c>
       <c r="J23">
-        <v>1487023600</v>
+        <v>1341410500</v>
       </c>
       <c r="K23">
-        <v>1348915000</v>
+        <v>1323459000</v>
       </c>
       <c r="L23">
-        <v>1601161900</v>
+        <v>1256613400</v>
       </c>
       <c r="M23">
-        <v>1318472600</v>
+        <v>1278554700</v>
       </c>
       <c r="N23" s="11">
         <v>1474605300</v>
@@ -3113,37 +3111,37 @@
         <v>6792192700</v>
       </c>
       <c r="C24">
-        <v>3652772400</v>
+        <v>3367015500</v>
       </c>
       <c r="D24">
-        <v>2634512900</v>
+        <v>2422494300</v>
       </c>
       <c r="E24">
-        <v>2467427600</v>
+        <v>2170166700</v>
       </c>
       <c r="F24">
-        <v>2064061200</v>
+        <v>1828109300</v>
       </c>
       <c r="G24">
-        <v>1754446600</v>
+        <v>1675517300</v>
       </c>
       <c r="H24">
-        <v>1557269000</v>
+        <v>1575754500</v>
       </c>
       <c r="I24">
-        <v>1565830800</v>
+        <v>1440145900</v>
       </c>
       <c r="J24">
-        <v>1678548500</v>
+        <v>1309495800</v>
       </c>
       <c r="K24">
-        <v>1377294800</v>
+        <v>1271597100</v>
       </c>
       <c r="L24">
-        <v>1594384500</v>
+        <v>1268607500</v>
       </c>
       <c r="M24">
-        <v>1413242100</v>
+        <v>1271579000</v>
       </c>
       <c r="N24" s="11">
         <v>1356876600</v>
@@ -3157,37 +3155,37 @@
         <v>6937510800</v>
       </c>
       <c r="C25">
-        <v>3764305800</v>
+        <v>3387934400</v>
       </c>
       <c r="D25">
-        <v>2637440100</v>
+        <v>2406585900</v>
       </c>
       <c r="E25">
-        <v>2544589600</v>
+        <v>2105347100</v>
       </c>
       <c r="F25">
-        <v>2134185700</v>
+        <v>1875978900</v>
       </c>
       <c r="G25">
-        <v>1589078400</v>
+        <v>1617671700</v>
       </c>
       <c r="H25">
-        <v>1660490900</v>
+        <v>1573789000</v>
       </c>
       <c r="I25">
-        <v>1548506900</v>
+        <v>1386290700</v>
       </c>
       <c r="J25">
-        <v>1349389500</v>
+        <v>1401250800</v>
       </c>
       <c r="K25">
-        <v>1390861900</v>
+        <v>1323458800</v>
       </c>
       <c r="L25">
-        <v>1573628100</v>
+        <v>1267608700</v>
       </c>
       <c r="M25">
-        <v>1452114100</v>
+        <v>1278578500</v>
       </c>
       <c r="N25" s="11">
         <v>1329882600</v>
@@ -3201,37 +3199,37 @@
         <v>6798221100</v>
       </c>
       <c r="C26">
-        <v>3693895400</v>
+        <v>3306179900</v>
       </c>
       <c r="D26">
-        <v>2581601500</v>
+        <v>2313809800</v>
       </c>
       <c r="E26">
-        <v>2388774600</v>
+        <v>2105365600</v>
       </c>
       <c r="F26">
-        <v>2078112200</v>
+        <v>1797190900</v>
       </c>
       <c r="G26">
-        <v>1674006900</v>
+        <v>1552843300</v>
       </c>
       <c r="H26">
-        <v>1617534600</v>
+        <v>1507964400</v>
       </c>
       <c r="I26">
-        <v>1583363800</v>
+        <v>1472060800</v>
       </c>
       <c r="J26">
-        <v>1632480800</v>
+        <v>1475053800</v>
       </c>
       <c r="K26">
-        <v>1359362000</v>
+        <v>1291544600</v>
       </c>
       <c r="L26">
-        <v>1641705400</v>
+        <v>1285559100</v>
       </c>
       <c r="M26">
-        <v>1305565300</v>
+        <v>1187823300</v>
       </c>
       <c r="N26" s="11">
         <v>1382844200</v>
@@ -3245,37 +3243,37 @@
         <v>7355049000</v>
       </c>
       <c r="C27">
-        <v>4190709400</v>
+        <v>3384941400</v>
       </c>
       <c r="D27">
-        <v>2503327200</v>
+        <v>2366667400</v>
       </c>
       <c r="E27">
-        <v>2155658100</v>
+        <v>2172188500</v>
       </c>
       <c r="F27">
-        <v>1994489300</v>
+        <v>1832095600</v>
       </c>
       <c r="G27">
-        <v>1611196200</v>
+        <v>1527910700</v>
       </c>
       <c r="H27">
-        <v>1659240300</v>
+        <v>1451142700</v>
       </c>
       <c r="I27">
-        <v>1338454100</v>
+        <v>1442140400</v>
       </c>
       <c r="J27">
-        <v>1400362500</v>
+        <v>1284562200</v>
       </c>
       <c r="K27">
-        <v>1439226600</v>
+        <v>1236691200</v>
       </c>
       <c r="L27">
-        <v>1415455600</v>
+        <v>1266610400</v>
       </c>
       <c r="M27">
-        <v>1432419100</v>
+        <v>1258633200</v>
       </c>
       <c r="N27" s="11">
         <v>1298524500</v>
@@ -3289,37 +3287,37 @@
         <v>7390365800</v>
       </c>
       <c r="C28">
-        <v>3680177900</v>
+        <v>3414862900</v>
       </c>
       <c r="D28">
-        <v>2601112500</v>
+        <v>2477343200</v>
       </c>
       <c r="E28">
-        <v>2167268000</v>
+        <v>2124290600</v>
       </c>
       <c r="F28">
-        <v>1900414300</v>
+        <v>1829105700</v>
       </c>
       <c r="G28">
-        <v>1623596200</v>
+        <v>1535891000</v>
       </c>
       <c r="H28">
-        <v>1675124700</v>
+        <v>1432168400</v>
       </c>
       <c r="I28">
-        <v>1506967800</v>
+        <v>1333432100</v>
       </c>
       <c r="J28">
-        <v>1452117700</v>
+        <v>1402248300</v>
       </c>
       <c r="K28">
-        <v>1423231500</v>
+        <v>1446131000</v>
       </c>
       <c r="L28">
-        <v>1528210300</v>
+        <v>1379308500</v>
       </c>
       <c r="M28">
-        <v>1436728800</v>
+        <v>1171864000</v>
       </c>
       <c r="N28" s="11">
         <v>1449139500</v>
@@ -3333,37 +3331,37 @@
         <v>7399051800</v>
       </c>
       <c r="C29">
-        <v>3556850500</v>
+        <v>3405886600</v>
       </c>
       <c r="D29">
-        <v>2594060500</v>
+        <v>2467422100</v>
       </c>
       <c r="E29">
-        <v>2323349700</v>
+        <v>2073453400</v>
       </c>
       <c r="F29">
-        <v>1926753700</v>
+        <v>1799185100</v>
       </c>
       <c r="G29">
-        <v>1679015500</v>
+        <v>1571793900</v>
       </c>
       <c r="H29">
-        <v>1635279400</v>
+        <v>1390305300</v>
       </c>
       <c r="I29">
-        <v>1342914200</v>
+        <v>1391276700</v>
       </c>
       <c r="J29">
-        <v>1424228800</v>
+        <v>1279577600</v>
       </c>
       <c r="K29">
-        <v>1738349200</v>
+        <v>1338418000</v>
       </c>
       <c r="L29">
-        <v>1502284700</v>
+        <v>1363353000</v>
       </c>
       <c r="M29">
-        <v>1357126800</v>
+        <v>1208746000</v>
       </c>
       <c r="N29" s="11">
         <v>1372349700</v>
@@ -3377,37 +3375,37 @@
         <v>7339316700</v>
       </c>
       <c r="C30">
-        <v>3514690400</v>
+        <v>3389904300</v>
       </c>
       <c r="D30">
-        <v>2605034500</v>
+        <v>2370681100</v>
       </c>
       <c r="E30">
-        <v>2209368400</v>
+        <v>2128305300</v>
       </c>
       <c r="F30">
-        <v>1952585500</v>
+        <v>1910913000</v>
       </c>
       <c r="G30">
-        <v>1640609800</v>
+        <v>1561821700</v>
       </c>
       <c r="H30">
-        <v>1630578300</v>
+        <v>1402223900</v>
       </c>
       <c r="I30">
-        <v>1422552400</v>
+        <v>1270601500</v>
       </c>
       <c r="J30">
-        <v>1397260700</v>
+        <v>1417207900</v>
       </c>
       <c r="K30">
-        <v>1408250100</v>
+        <v>1309496200</v>
       </c>
       <c r="L30">
-        <v>1487498000</v>
+        <v>1289544600</v>
       </c>
       <c r="M30">
-        <v>1484051300</v>
+        <v>1320465800</v>
       </c>
       <c r="N30" s="11">
         <v>1338221900</v>
@@ -3421,37 +3419,37 @@
         <v>6929264100</v>
       </c>
       <c r="C31">
-        <v>3669295200</v>
+        <v>3337071600</v>
       </c>
       <c r="D31">
-        <v>2488950000</v>
+        <v>2431522400</v>
       </c>
       <c r="E31">
-        <v>2155082300</v>
+        <v>2108358300</v>
       </c>
       <c r="F31">
-        <v>1816631600</v>
+        <v>1744309000</v>
       </c>
       <c r="G31">
-        <v>1767999200</v>
+        <v>1463110200</v>
       </c>
       <c r="H31">
-        <v>1711583200</v>
+        <v>1433165500</v>
       </c>
       <c r="I31">
-        <v>1391980300</v>
+        <v>1396264200</v>
       </c>
       <c r="J31">
-        <v>1470082800</v>
+        <v>1304510300</v>
       </c>
       <c r="K31">
-        <v>1446111800</v>
+        <v>1270600700</v>
       </c>
       <c r="L31">
-        <v>1699631000</v>
+        <v>1397260000</v>
       </c>
       <c r="M31">
-        <v>1225754500</v>
+        <v>1161890300</v>
       </c>
       <c r="N31" s="11">
         <v>1339169200</v>
@@ -3465,37 +3463,37 @@
         <v>6901023400</v>
       </c>
       <c r="C32">
-        <v>3509257700</v>
+        <v>3291218700</v>
       </c>
       <c r="D32">
-        <v>2568663600</v>
+        <v>2412543800</v>
       </c>
       <c r="E32">
-        <v>2131954600</v>
+        <v>2137291400</v>
       </c>
       <c r="F32">
-        <v>1995974300</v>
+        <v>1631609400</v>
       </c>
       <c r="G32">
-        <v>1645559800</v>
+        <v>1558827700</v>
       </c>
       <c r="H32">
-        <v>1713896500</v>
+        <v>1456103500</v>
       </c>
       <c r="I32">
-        <v>1382300900</v>
+        <v>1304510800</v>
       </c>
       <c r="J32">
-        <v>1402247800</v>
+        <v>1348391300</v>
       </c>
       <c r="K32">
-        <v>1349389700</v>
+        <v>1319469800</v>
       </c>
       <c r="L32">
-        <v>1711658400</v>
+        <v>1407235100</v>
       </c>
       <c r="M32">
-        <v>1402246500</v>
+        <v>1236672300</v>
       </c>
       <c r="N32" s="11">
         <v>1396183900</v>
@@ -3509,37 +3507,37 @@
         <v>6915825500</v>
       </c>
       <c r="C33">
-        <v>3605487100</v>
+        <v>3323082900</v>
       </c>
       <c r="D33">
-        <v>2586634800</v>
+        <v>2418530700</v>
       </c>
       <c r="E33">
-        <v>2297041700</v>
+        <v>2141271500</v>
       </c>
       <c r="F33">
-        <v>2008784100</v>
+        <v>1752336200</v>
       </c>
       <c r="G33">
-        <v>1960491500</v>
+        <v>1486025100</v>
       </c>
       <c r="H33">
-        <v>1475128000</v>
+        <v>1359333700</v>
       </c>
       <c r="I33">
-        <v>1380681900</v>
+        <v>1363345800</v>
       </c>
       <c r="J33">
-        <v>1454204100</v>
+        <v>1332435600</v>
       </c>
       <c r="K33">
-        <v>1403260700</v>
+        <v>1292541100</v>
       </c>
       <c r="L33">
-        <v>1408355000</v>
+        <v>1245665400</v>
       </c>
       <c r="M33">
-        <v>1362371400</v>
+        <v>1296531800</v>
       </c>
       <c r="N33" s="11">
         <v>1270871000</v>
@@ -3553,37 +3551,37 @@
         <v>6878443100</v>
       </c>
       <c r="C34">
-        <v>3607617900</v>
+        <v>3414838400</v>
       </c>
       <c r="D34">
-        <v>2548184100</v>
+        <v>2343756700</v>
       </c>
       <c r="E34">
-        <v>2322798600</v>
+        <v>2021590900</v>
       </c>
       <c r="F34">
-        <v>1838159300</v>
+        <v>1614680500</v>
       </c>
       <c r="G34">
-        <v>1704442400</v>
+        <v>1530902900</v>
       </c>
       <c r="H34">
-        <v>1574314600</v>
+        <v>1500984200</v>
       </c>
       <c r="I34">
-        <v>1357776400</v>
+        <v>1249656600</v>
       </c>
       <c r="J34">
-        <v>1375337800</v>
+        <v>1347395600</v>
       </c>
       <c r="K34">
-        <v>1412408200</v>
+        <v>1233699300</v>
       </c>
       <c r="L34">
-        <v>1487255000</v>
+        <v>1272604900</v>
       </c>
       <c r="M34">
-        <v>1355218500</v>
+        <v>1232674500</v>
       </c>
       <c r="N34" s="11">
         <v>1388301700</v>
@@ -3597,37 +3595,37 @@
         <v>7039095700</v>
       </c>
       <c r="C35">
-        <v>3518889900</v>
+        <v>3444758600</v>
       </c>
       <c r="D35">
-        <v>2674733100</v>
+        <v>2426506900</v>
       </c>
       <c r="E35">
-        <v>2115157100</v>
+        <v>2031564300</v>
       </c>
       <c r="F35">
-        <v>1946637200</v>
+        <v>1727403500</v>
       </c>
       <c r="G35">
-        <v>1661518900</v>
+        <v>1464082600</v>
       </c>
       <c r="H35">
-        <v>1485568800</v>
+        <v>1357339700</v>
       </c>
       <c r="I35">
-        <v>1448824900</v>
+        <v>1375302000</v>
       </c>
       <c r="J35">
-        <v>1483555900</v>
+        <v>1301517800</v>
       </c>
       <c r="K35">
-        <v>1425255200</v>
+        <v>1371331700</v>
       </c>
       <c r="L35">
-        <v>1420121700</v>
+        <v>1255621500</v>
       </c>
       <c r="M35">
-        <v>1551864800</v>
+        <v>1338418600</v>
       </c>
       <c r="N35" s="11">
         <v>1464628400</v>
@@ -3641,37 +3639,37 @@
         <v>6913618800</v>
       </c>
       <c r="C36">
-        <v>3632514800</v>
+        <v>3354024700</v>
       </c>
       <c r="D36">
-        <v>2564843300</v>
+        <v>2426507100</v>
       </c>
       <c r="E36">
-        <v>2018520100</v>
+        <v>1921858100</v>
       </c>
       <c r="F36">
-        <v>1855541800</v>
+        <v>1694465400</v>
       </c>
       <c r="G36">
-        <v>1666073700</v>
+        <v>1608694500</v>
       </c>
       <c r="H36">
-        <v>1530317200</v>
+        <v>1446129600</v>
       </c>
       <c r="I36">
-        <v>1354883700</v>
+        <v>1263619700</v>
       </c>
       <c r="J36">
-        <v>1430861200</v>
+        <v>1323434300</v>
       </c>
       <c r="K36">
-        <v>1558866000</v>
+        <v>1250654200</v>
       </c>
       <c r="L36">
-        <v>1484223200</v>
+        <v>1267606900</v>
       </c>
       <c r="M36">
-        <v>1520930700</v>
+        <v>1388285500</v>
       </c>
       <c r="N36" s="11">
         <v>1396774000</v>
@@ -3685,37 +3683,37 @@
         <v>6887726700</v>
       </c>
       <c r="C37">
-        <v>3448796900</v>
+        <v>3370756800</v>
       </c>
       <c r="D37">
-        <v>2602013500</v>
+        <v>2472383900</v>
       </c>
       <c r="E37">
-        <v>2218996800</v>
+        <v>1933824000</v>
       </c>
       <c r="F37">
-        <v>1852945000</v>
+        <v>1676515200</v>
       </c>
       <c r="G37">
-        <v>1649562100</v>
+        <v>1502952800</v>
       </c>
       <c r="H37">
-        <v>1494989500</v>
+        <v>1404221100</v>
       </c>
       <c r="I37">
-        <v>1384585400</v>
+        <v>1320466000</v>
       </c>
       <c r="J37">
-        <v>1507799700</v>
+        <v>1382300300</v>
       </c>
       <c r="K37">
-        <v>1379357400</v>
+        <v>1290546600</v>
       </c>
       <c r="L37">
-        <v>1462781600</v>
+        <v>1217742200</v>
       </c>
       <c r="M37">
-        <v>1524940500</v>
+        <v>1440146900</v>
       </c>
       <c r="N37" s="11">
         <v>1561402000</v>
@@ -3729,37 +3727,37 @@
         <v>6837884000</v>
       </c>
       <c r="C38">
-        <v>3483186000</v>
+        <v>3369983600</v>
       </c>
       <c r="D38">
-        <v>2586281000</v>
+        <v>2410550400</v>
       </c>
       <c r="E38">
-        <v>2231146900</v>
+        <v>1973695400</v>
       </c>
       <c r="F38">
-        <v>1966113600</v>
+        <v>1748321700</v>
       </c>
       <c r="G38">
-        <v>1671574100</v>
+        <v>1546860600</v>
       </c>
       <c r="H38">
-        <v>1505971500</v>
+        <v>1443116800</v>
       </c>
       <c r="I38">
-        <v>1323989400</v>
+        <v>1285559300</v>
       </c>
       <c r="J38">
-        <v>1421408500</v>
+        <v>1290546600</v>
       </c>
       <c r="K38">
-        <v>1417225200</v>
+        <v>1315478200</v>
       </c>
       <c r="L38">
-        <v>1546073000</v>
+        <v>1211756900</v>
       </c>
       <c r="M38">
-        <v>1393364800</v>
+        <v>1352381200</v>
       </c>
       <c r="N38" s="11">
         <v>1464102500</v>
@@ -3773,37 +3771,37 @@
         <v>6898644200</v>
       </c>
       <c r="C39">
-        <v>3576763900</v>
+        <v>3346046700</v>
       </c>
       <c r="D39">
-        <v>2952102500</v>
+        <v>2378636700</v>
       </c>
       <c r="E39">
-        <v>2179607500</v>
+        <v>1924825900</v>
       </c>
       <c r="F39">
-        <v>1973092200</v>
+        <v>1617647200</v>
       </c>
       <c r="G39">
-        <v>1608685400</v>
+        <v>1524919100</v>
       </c>
       <c r="H39">
-        <v>1445802000</v>
+        <v>1407254500</v>
       </c>
       <c r="I39">
-        <v>1410830300</v>
+        <v>1336402300</v>
       </c>
       <c r="J39">
-        <v>1462086200</v>
+        <v>1373325700</v>
       </c>
       <c r="K39">
-        <v>1392274300</v>
+        <v>1408232300</v>
       </c>
       <c r="L39">
-        <v>1594298700</v>
+        <v>1233699700</v>
       </c>
       <c r="M39">
-        <v>1253682700</v>
+        <v>1195774200</v>
       </c>
       <c r="N39" s="11">
         <v>1561875100</v>
@@ -3817,37 +3815,37 @@
         <v>6884009600</v>
       </c>
       <c r="C40">
-        <v>3429902300</v>
+        <v>3413890800</v>
       </c>
       <c r="D40">
-        <v>2584085600</v>
+        <v>2367641700</v>
       </c>
       <c r="E40">
-        <v>2060969100</v>
+        <v>1891936500</v>
       </c>
       <c r="F40">
-        <v>2028401000</v>
+        <v>1721393300</v>
       </c>
       <c r="G40">
-        <v>1668510200</v>
+        <v>1566807900</v>
       </c>
       <c r="H40">
-        <v>1549854300</v>
+        <v>1430173600</v>
       </c>
       <c r="I40">
-        <v>1354511000</v>
+        <v>1304525900</v>
       </c>
       <c r="J40">
-        <v>1389809100</v>
+        <v>1310493300</v>
       </c>
       <c r="K40">
-        <v>1388281600</v>
+        <v>1322461400</v>
       </c>
       <c r="L40">
-        <v>1520178800</v>
+        <v>1186800000</v>
       </c>
       <c r="M40">
-        <v>1340414000</v>
+        <v>1212755800</v>
       </c>
       <c r="N40" s="11">
         <v>1433690700</v>
@@ -3861,37 +3859,37 @@
         <v>6825956400</v>
       </c>
       <c r="C41">
-        <v>3621257600</v>
+        <v>3350033600</v>
       </c>
       <c r="D41">
-        <v>2762202600</v>
+        <v>2420498600</v>
       </c>
       <c r="E41">
-        <v>2059463800</v>
+        <v>1908892900</v>
       </c>
       <c r="F41">
-        <v>1946560400</v>
+        <v>1710395800</v>
       </c>
       <c r="G41">
-        <v>1621661300</v>
+        <v>1543869000</v>
       </c>
       <c r="H41">
-        <v>1481100700</v>
+        <v>1390279800</v>
       </c>
       <c r="I41">
-        <v>1411165100</v>
+        <v>1319469200</v>
       </c>
       <c r="J41">
-        <v>1452131700</v>
+        <v>1365347100</v>
       </c>
       <c r="K41">
-        <v>1390805300</v>
+        <v>1253639100</v>
       </c>
       <c r="L41">
-        <v>1496215000</v>
+        <v>1274571100</v>
       </c>
       <c r="M41">
-        <v>1333449500</v>
+        <v>1238684100</v>
       </c>
       <c r="N41" s="11">
         <v>1391969600</v>
@@ -3905,37 +3903,37 @@
         <v>6902367500</v>
       </c>
       <c r="C42">
-        <v>3564789900</v>
+        <v>3336100900</v>
       </c>
       <c r="D42">
-        <v>2594821500</v>
+        <v>2434484700</v>
       </c>
       <c r="E42">
-        <v>2238431700</v>
+        <v>1937839700</v>
       </c>
       <c r="F42">
-        <v>1943392600</v>
+        <v>1614680000</v>
       </c>
       <c r="G42">
-        <v>1707118000</v>
+        <v>1570800200</v>
       </c>
       <c r="H42">
-        <v>1529195400</v>
+        <v>1445133800</v>
       </c>
       <c r="I42">
-        <v>1401250600</v>
+        <v>1319469600</v>
       </c>
       <c r="J42">
-        <v>1380363100</v>
+        <v>1308499000</v>
       </c>
       <c r="K42">
-        <v>1347375900</v>
+        <v>1332434800</v>
       </c>
       <c r="L42">
-        <v>1360359700</v>
+        <v>1182853600</v>
       </c>
       <c r="M42">
-        <v>1207496300</v>
+        <v>1137936700</v>
       </c>
       <c r="N42" s="11">
         <v>1261623100</v>
@@ -3949,37 +3947,37 @@
         <v>6837144600</v>
       </c>
       <c r="C43">
-        <v>3652111200</v>
+        <v>3424837800</v>
       </c>
       <c r="D43">
-        <v>2552653000</v>
+        <v>2427506900</v>
       </c>
       <c r="E43">
-        <v>2248742900</v>
+        <v>1893932900</v>
       </c>
       <c r="F43">
-        <v>1859887000</v>
+        <v>1743334000</v>
       </c>
       <c r="G43">
-        <v>1599733900</v>
+        <v>1576806800</v>
       </c>
       <c r="H43">
-        <v>1459981000</v>
+        <v>1364350300</v>
       </c>
       <c r="I43">
-        <v>1426189100</v>
+        <v>1281577300</v>
       </c>
       <c r="J43">
-        <v>1372852100</v>
+        <v>1336404400</v>
       </c>
       <c r="K43">
-        <v>1438171000</v>
+        <v>1233697100</v>
       </c>
       <c r="L43">
-        <v>1566022200</v>
+        <v>1254643400</v>
       </c>
       <c r="M43">
-        <v>1334565900</v>
+        <v>1205774100</v>
       </c>
       <c r="N43" s="11">
         <v>1401353600</v>
@@ -3993,37 +3991,37 @@
         <v>6946578400</v>
       </c>
       <c r="C44">
-        <v>3866254700</v>
+        <v>3508611900</v>
       </c>
       <c r="D44">
-        <v>2504203300</v>
+        <v>2416510500</v>
       </c>
       <c r="E44">
-        <v>2166760100</v>
+        <v>1918845300</v>
       </c>
       <c r="F44">
-        <v>2021679800</v>
+        <v>1639613200</v>
       </c>
       <c r="G44">
-        <v>1646621200</v>
+        <v>1525916500</v>
       </c>
       <c r="H44">
-        <v>1536951100</v>
+        <v>1445132300</v>
       </c>
       <c r="I44">
-        <v>1352641800</v>
+        <v>1340412000</v>
       </c>
       <c r="J44">
-        <v>1447128800</v>
+        <v>1349389200</v>
       </c>
       <c r="K44">
-        <v>1348991600</v>
+        <v>1321464100</v>
       </c>
       <c r="L44">
-        <v>1492519200</v>
+        <v>1249656700</v>
       </c>
       <c r="M44">
-        <v>1228729400</v>
+        <v>1211755800</v>
       </c>
       <c r="N44" s="11">
         <v>1261174700</v>
@@ -4037,37 +4035,37 @@
         <v>7019211400</v>
       </c>
       <c r="C45">
-        <v>3640796400</v>
+        <v>3652228000</v>
       </c>
       <c r="D45">
-        <v>2617728700</v>
+        <v>2519258800</v>
       </c>
       <c r="E45">
-        <v>2327087900</v>
+        <v>1967734800</v>
       </c>
       <c r="F45">
-        <v>1867172200</v>
+        <v>1709426000</v>
       </c>
       <c r="G45">
-        <v>1627532500</v>
+        <v>1656567900</v>
       </c>
       <c r="H45">
-        <v>1468487500</v>
+        <v>1397241800</v>
       </c>
       <c r="I45">
-        <v>1376824900</v>
+        <v>1273567600</v>
       </c>
       <c r="J45">
-        <v>1447655000</v>
+        <v>1309496700</v>
       </c>
       <c r="K45">
-        <v>1472104200</v>
+        <v>1281570500</v>
       </c>
       <c r="L45">
-        <v>1395389700</v>
+        <v>1159901600</v>
       </c>
       <c r="M45">
-        <v>1214783300</v>
+        <v>1213753100</v>
       </c>
       <c r="N45" s="11">
         <v>1315503300</v>
@@ -4081,37 +4079,37 @@
         <v>6885802400</v>
       </c>
       <c r="C46">
-        <v>3652377700</v>
+        <v>3681126400</v>
       </c>
       <c r="D46">
-        <v>2544109200</v>
+        <v>2446430200</v>
       </c>
       <c r="E46">
-        <v>2333965300</v>
+        <v>1906897000</v>
       </c>
       <c r="F46">
-        <v>1926562200</v>
+        <v>1686495800</v>
       </c>
       <c r="G46">
-        <v>1652106200</v>
+        <v>1591740500</v>
       </c>
       <c r="H46">
-        <v>1523404400</v>
+        <v>1440121900</v>
       </c>
       <c r="I46">
-        <v>1362646200</v>
+        <v>1384278900</v>
       </c>
       <c r="J46">
-        <v>1463085200</v>
+        <v>1337421700</v>
       </c>
       <c r="K46">
-        <v>1337421100</v>
+        <v>1267608500</v>
       </c>
       <c r="L46">
-        <v>1662523800</v>
+        <v>1265587700</v>
       </c>
       <c r="M46">
-        <v>1340413900</v>
+        <v>1224705400</v>
       </c>
       <c r="N46" s="11">
         <v>1313991200</v>
@@ -4125,37 +4123,37 @@
         <v>6974854500</v>
       </c>
       <c r="C47">
-        <v>3668282600</v>
+        <v>3836733000</v>
       </c>
       <c r="D47">
-        <v>2632436000</v>
+        <v>2491327900</v>
       </c>
       <c r="E47">
-        <v>2213943200</v>
+        <v>1955739200</v>
       </c>
       <c r="F47">
-        <v>1980533400</v>
+        <v>1656565500</v>
       </c>
       <c r="G47">
-        <v>1677020500</v>
+        <v>1679481400</v>
       </c>
       <c r="H47">
-        <v>1453661500</v>
+        <v>1384271000</v>
       </c>
       <c r="I47">
-        <v>1376581700</v>
+        <v>1271606900</v>
       </c>
       <c r="J47">
-        <v>1473516300</v>
+        <v>1307501100</v>
       </c>
       <c r="K47">
-        <v>1366887800</v>
+        <v>1362354600</v>
       </c>
       <c r="L47">
-        <v>1525054200</v>
+        <v>1192826300</v>
       </c>
       <c r="M47">
-        <v>1220750500</v>
+        <v>1185827800</v>
       </c>
       <c r="N47" s="11">
         <v>1292399900</v>
@@ -4169,37 +4167,37 @@
         <v>6975728400</v>
       </c>
       <c r="C48">
-        <v>3682779800</v>
+        <v>3687136500</v>
       </c>
       <c r="D48">
-        <v>2565160400</v>
+        <v>2357692200</v>
       </c>
       <c r="E48">
-        <v>2210993000</v>
+        <v>2016603900</v>
       </c>
       <c r="F48">
-        <v>1944102600</v>
+        <v>1695438200</v>
       </c>
       <c r="G48">
-        <v>1615732200</v>
+        <v>1629639000</v>
       </c>
       <c r="H48">
-        <v>1567342200</v>
+        <v>1481019100</v>
       </c>
       <c r="I48">
-        <v>1363771100</v>
+        <v>1352373700</v>
       </c>
       <c r="J48">
-        <v>1648627200</v>
+        <v>1420173000</v>
       </c>
       <c r="K48">
-        <v>1437153700</v>
+        <v>1260627500</v>
       </c>
       <c r="L48">
-        <v>1381215200</v>
+        <v>1212736400</v>
       </c>
       <c r="M48">
-        <v>1260648700</v>
+        <v>1127956500</v>
       </c>
       <c r="N48" s="11">
         <v>1346465200</v>
@@ -4213,37 +4211,37 @@
         <v>6853798100</v>
       </c>
       <c r="C49">
-        <v>3722668200</v>
+        <v>3694114900</v>
       </c>
       <c r="D49">
-        <v>2588078200</v>
+        <v>2381628400</v>
       </c>
       <c r="E49">
-        <v>2183325500</v>
+        <v>1916870300</v>
       </c>
       <c r="F49">
-        <v>1950503100</v>
+        <v>1646619500</v>
       </c>
       <c r="G49">
-        <v>1683026100</v>
+        <v>1680504300</v>
       </c>
       <c r="H49">
-        <v>1414463500</v>
+        <v>1402221700</v>
       </c>
       <c r="I49">
-        <v>1374002900</v>
+        <v>1279577200</v>
       </c>
       <c r="J49">
-        <v>1327457800</v>
+        <v>1370333300</v>
       </c>
       <c r="K49">
-        <v>1359424600</v>
+        <v>1308499900</v>
       </c>
       <c r="L49">
-        <v>1432970800</v>
+        <v>1263643100</v>
       </c>
       <c r="M49">
-        <v>1334429000</v>
+        <v>1215728900</v>
       </c>
       <c r="N49" s="11">
         <v>1321558900</v>
@@ -4257,37 +4255,37 @@
         <v>6917965500</v>
       </c>
       <c r="C50">
-        <v>3710502200</v>
+        <v>3660182400</v>
       </c>
       <c r="D50">
-        <v>2619030700</v>
+        <v>2378636000</v>
       </c>
       <c r="E50">
-        <v>2241833600</v>
+        <v>1882962600</v>
       </c>
       <c r="F50">
-        <v>1930639700</v>
+        <v>1711394900</v>
       </c>
       <c r="G50">
-        <v>1606672900</v>
+        <v>1663548200</v>
       </c>
       <c r="H50">
-        <v>1518934400</v>
+        <v>1461088900</v>
       </c>
       <c r="I50">
-        <v>1437671400</v>
+        <v>1313484500</v>
       </c>
       <c r="J50">
-        <v>1374433100</v>
+        <v>1459095700</v>
       </c>
       <c r="K50">
-        <v>1431188200</v>
+        <v>1238685500</v>
       </c>
       <c r="L50">
-        <v>1482224200</v>
+        <v>1161891300</v>
       </c>
       <c r="M50">
-        <v>1313476100</v>
+        <v>1168872200</v>
       </c>
       <c r="N50" s="11">
         <v>1291139600</v>
@@ -4301,37 +4299,37 @@
         <v>7002115400</v>
       </c>
       <c r="C51">
-        <v>3669467600</v>
+        <v>3557481200</v>
       </c>
       <c r="D51">
-        <v>2635922700</v>
+        <v>2421520700</v>
       </c>
       <c r="E51">
-        <v>2249955400</v>
+        <v>1903878400</v>
       </c>
       <c r="F51">
-        <v>2022269900</v>
+        <v>1663523900</v>
       </c>
       <c r="G51">
-        <v>1677325700</v>
+        <v>1586755100</v>
       </c>
       <c r="H51">
-        <v>1479042400</v>
+        <v>1440146400</v>
       </c>
       <c r="I51">
-        <v>1353107600</v>
+        <v>1297526900</v>
       </c>
       <c r="J51">
-        <v>1262128300</v>
+        <v>1218738900</v>
       </c>
       <c r="K51">
-        <v>1330980400</v>
+        <v>1322461300</v>
       </c>
       <c r="L51">
-        <v>1488141200</v>
+        <v>1294535100</v>
       </c>
       <c r="M51">
-        <v>1312481200</v>
+        <v>1144909900</v>
       </c>
       <c r="N51" s="11">
         <v>1368390900</v>
@@ -4345,37 +4343,37 @@
         <v>6947026400</v>
       </c>
       <c r="C52">
-        <v>3468176900</v>
+        <v>3440798200</v>
       </c>
       <c r="D52">
-        <v>2572652600</v>
+        <v>2425510800</v>
       </c>
       <c r="E52">
-        <v>2124902500</v>
+        <v>2030540800</v>
       </c>
       <c r="F52">
-        <v>1862996300</v>
+        <v>1715433800</v>
       </c>
       <c r="G52">
-        <v>1604700600</v>
+        <v>1565810600</v>
       </c>
       <c r="H52">
-        <v>1505086100</v>
+        <v>1485997800</v>
       </c>
       <c r="I52">
-        <v>1385247300</v>
+        <v>1306483800</v>
       </c>
       <c r="J52">
-        <v>1523939000</v>
+        <v>1271598100</v>
       </c>
       <c r="K52">
-        <v>1492027100</v>
+        <v>1269604600</v>
       </c>
       <c r="L52">
-        <v>1379508400</v>
+        <v>1226742900</v>
       </c>
       <c r="M52">
-        <v>1298945300</v>
+        <v>1223707600</v>
       </c>
       <c r="N52" s="11">
         <v>1291028200</v>
@@ -4389,37 +4387,37 @@
         <v>7260520100</v>
       </c>
       <c r="C53">
-        <v>3477323700</v>
+        <v>3317124900</v>
       </c>
       <c r="D53">
-        <v>2511822100</v>
+        <v>2489337800</v>
       </c>
       <c r="E53">
-        <v>2149244900</v>
+        <v>1878001700</v>
       </c>
       <c r="F53">
-        <v>2014672100</v>
+        <v>1673496600</v>
       </c>
       <c r="G53">
-        <v>1692354800</v>
+        <v>1468096800</v>
       </c>
       <c r="H53">
-        <v>1414193800</v>
+        <v>1367340700</v>
       </c>
       <c r="I53">
-        <v>1361945400</v>
+        <v>1355372700</v>
       </c>
       <c r="J53">
-        <v>1392297500</v>
+        <v>1256637000</v>
       </c>
       <c r="K53">
-        <v>1372346300</v>
+        <v>1284563100</v>
       </c>
       <c r="L53">
-        <v>1418579500</v>
+        <v>1171837500</v>
       </c>
       <c r="M53">
-        <v>1231265400</v>
+        <v>1221730900</v>
       </c>
       <c r="N53" s="11">
         <v>1325087100</v>
@@ -4433,37 +4431,37 @@
         <v>7530783500</v>
       </c>
       <c r="C54">
-        <v>3685355000</v>
+        <v>3377962100</v>
       </c>
       <c r="D54">
-        <v>2593039600</v>
+        <v>2557132400</v>
       </c>
       <c r="E54">
-        <v>2093398900</v>
+        <v>1977712400</v>
       </c>
       <c r="F54">
-        <v>1952126200</v>
+        <v>1662553000</v>
       </c>
       <c r="G54">
-        <v>1665097900</v>
+        <v>1594731400</v>
       </c>
       <c r="H54">
-        <v>1584567000</v>
+        <v>1425187500</v>
       </c>
       <c r="I54">
-        <v>1406323100</v>
+        <v>1323434200</v>
       </c>
       <c r="J54">
-        <v>1470608500</v>
+        <v>1217741700</v>
       </c>
       <c r="K54">
-        <v>1450119900</v>
+        <v>1488018400</v>
       </c>
       <c r="L54">
-        <v>1513072300</v>
+        <v>1270602600</v>
       </c>
       <c r="M54">
-        <v>1298510900</v>
+        <v>1166877700</v>
       </c>
       <c r="N54" s="11">
         <v>1286463000</v>
@@ -4477,37 +4475,37 @@
         <v>7340844000</v>
       </c>
       <c r="C55">
-        <v>3497867900</v>
+        <v>3469744000</v>
       </c>
       <c r="D55">
-        <v>2659942900</v>
+        <v>2451439800</v>
       </c>
       <c r="E55">
-        <v>2181698700</v>
+        <v>1962748800</v>
       </c>
       <c r="F55">
-        <v>1822614900</v>
+        <v>1718401400</v>
       </c>
       <c r="G55">
-        <v>1711708300</v>
+        <v>1524919900</v>
       </c>
       <c r="H55">
-        <v>1468791100</v>
+        <v>1415188000</v>
       </c>
       <c r="I55">
-        <v>1331921500</v>
+        <v>1332415700</v>
       </c>
       <c r="J55">
-        <v>1419202800</v>
+        <v>1234694600</v>
       </c>
       <c r="K55">
-        <v>1508982700</v>
+        <v>1323458800</v>
       </c>
       <c r="L55">
-        <v>1319503600</v>
+        <v>1235693200</v>
       </c>
       <c r="M55">
-        <v>1269603300</v>
+        <v>1258633400</v>
       </c>
       <c r="N55" s="11">
         <v>1287710400</v>
@@ -4521,37 +4519,37 @@
         <v>7210034600</v>
       </c>
       <c r="C56">
-        <v>3515622200</v>
+        <v>3372950000</v>
       </c>
       <c r="D56">
-        <v>2571626100</v>
+        <v>2762609100</v>
       </c>
       <c r="E56">
-        <v>2158206800</v>
+        <v>1897922700</v>
       </c>
       <c r="F56">
-        <v>2023723200</v>
+        <v>1681501400</v>
       </c>
       <c r="G56">
-        <v>1702139200</v>
+        <v>1594733900</v>
       </c>
       <c r="H56">
-        <v>1529902600</v>
+        <v>1436138000</v>
       </c>
       <c r="I56">
-        <v>1423147100</v>
+        <v>1264592200</v>
       </c>
       <c r="J56">
-        <v>1445998400</v>
+        <v>1222729000</v>
       </c>
       <c r="K56">
-        <v>1500025800</v>
+        <v>1322461600</v>
       </c>
       <c r="L56">
-        <v>1360359000</v>
+        <v>1334430500</v>
       </c>
       <c r="M56">
-        <v>1268621900</v>
+        <v>1201761000</v>
       </c>
       <c r="N56" s="11">
         <v>1335481900</v>
@@ -4565,37 +4563,37 @@
         <v>6805413500</v>
       </c>
       <c r="C57">
-        <v>3608449100</v>
+        <v>3365969300</v>
       </c>
       <c r="D57">
-        <v>2586737700</v>
+        <v>2821450100</v>
       </c>
       <c r="E57">
-        <v>2219550800</v>
+        <v>1916894700</v>
       </c>
       <c r="F57">
-        <v>1843366600</v>
+        <v>1645596200</v>
       </c>
       <c r="G57">
-        <v>1557603100</v>
+        <v>1474055600</v>
       </c>
       <c r="H57">
-        <v>1456194700</v>
+        <v>1384295000</v>
       </c>
       <c r="I57">
-        <v>1548746100</v>
+        <v>1364321600</v>
       </c>
       <c r="J57">
-        <v>1447149100</v>
+        <v>1292522700</v>
       </c>
       <c r="K57">
-        <v>1443181700</v>
+        <v>1250653200</v>
       </c>
       <c r="L57">
-        <v>1393308800</v>
+        <v>1270599700</v>
       </c>
       <c r="M57">
-        <v>1325958500</v>
+        <v>1142932300</v>
       </c>
       <c r="N57" s="11">
         <v>1354438000</v>
@@ -4609,37 +4607,37 @@
         <v>6823582000</v>
       </c>
       <c r="C58">
-        <v>3510339900</v>
+        <v>3407856900</v>
       </c>
       <c r="D58">
-        <v>2657888200</v>
+        <v>2714735400</v>
       </c>
       <c r="E58">
-        <v>2376826300</v>
+        <v>2005633100</v>
       </c>
       <c r="F58">
-        <v>1841381600</v>
+        <v>1744326100</v>
       </c>
       <c r="G58">
-        <v>1636638500</v>
+        <v>1494999700</v>
       </c>
       <c r="H58">
-        <v>1569367000</v>
+        <v>1434161700</v>
       </c>
       <c r="I58">
-        <v>1541958200</v>
+        <v>1270600100</v>
       </c>
       <c r="J58">
-        <v>1466134100</v>
+        <v>1199765000</v>
       </c>
       <c r="K58">
-        <v>1254721600</v>
+        <v>1207767600</v>
       </c>
       <c r="L58">
-        <v>1488790900</v>
+        <v>1304509300</v>
       </c>
       <c r="M58">
-        <v>1299498700</v>
+        <v>1232684600</v>
       </c>
       <c r="N58" s="11">
         <v>1299524800</v>
@@ -4653,37 +4651,37 @@
         <v>6931309400</v>
       </c>
       <c r="C59">
-        <v>3609559100</v>
+        <v>3328071200</v>
       </c>
       <c r="D59">
-        <v>2596559000</v>
+        <v>2994987400</v>
       </c>
       <c r="E59">
-        <v>2225551300</v>
+        <v>1889919700</v>
       </c>
       <c r="F59">
-        <v>1887528400</v>
+        <v>1648590300</v>
       </c>
       <c r="G59">
-        <v>1658179100</v>
+        <v>1505968800</v>
       </c>
       <c r="H59">
-        <v>1451328200</v>
+        <v>1399256900</v>
       </c>
       <c r="I59">
-        <v>1421186400</v>
+        <v>1310493800</v>
       </c>
       <c r="J59">
-        <v>1487041900</v>
+        <v>1243649900</v>
       </c>
       <c r="K59">
-        <v>1327995000</v>
+        <v>1198773800</v>
       </c>
       <c r="L59">
-        <v>1421151100</v>
+        <v>1338417900</v>
       </c>
       <c r="M59">
-        <v>1275578500</v>
+        <v>1203754600</v>
       </c>
       <c r="N59" s="11">
         <v>1256691000</v>
@@ -4697,37 +4695,37 @@
         <v>6874350600</v>
       </c>
       <c r="C60">
-        <v>3792566500</v>
+        <v>3376987700</v>
       </c>
       <c r="D60">
-        <v>2658992300</v>
+        <v>2866350100</v>
       </c>
       <c r="E60">
-        <v>2232836000</v>
+        <v>1887948100</v>
       </c>
       <c r="F60">
-        <v>2013246800</v>
+        <v>1661531500</v>
       </c>
       <c r="G60">
-        <v>1665169300</v>
+        <v>1515943400</v>
       </c>
       <c r="H60">
-        <v>1529310600</v>
+        <v>1441143000</v>
       </c>
       <c r="I60">
-        <v>1398237800</v>
+        <v>1285584400</v>
       </c>
       <c r="J60">
-        <v>1403285300</v>
+        <v>1263591900</v>
       </c>
       <c r="K60">
-        <v>1247290800</v>
+        <v>1180839400</v>
       </c>
       <c r="L60">
-        <v>1355382200</v>
+        <v>1250654000</v>
       </c>
       <c r="M60">
-        <v>1378701900</v>
+        <v>1142942100</v>
       </c>
       <c r="N60" s="11">
         <v>1298544300</v>
@@ -4741,37 +4739,37 @@
         <v>6827907700</v>
       </c>
       <c r="C61">
-        <v>3499095700</v>
+        <v>3477694500</v>
       </c>
       <c r="D61">
-        <v>2518239900</v>
+        <v>2882268400</v>
       </c>
       <c r="E61">
-        <v>2149015300</v>
+        <v>2032561500</v>
       </c>
       <c r="F61">
-        <v>1830921100</v>
+        <v>1740343100</v>
       </c>
       <c r="G61">
-        <v>1647102000</v>
+        <v>1571794000</v>
       </c>
       <c r="H61">
-        <v>1438497900</v>
+        <v>1405264300</v>
       </c>
       <c r="I61">
-        <v>1352056500</v>
+        <v>1365345300</v>
       </c>
       <c r="J61">
-        <v>1447672600</v>
+        <v>1219707900</v>
       </c>
       <c r="K61">
-        <v>1303041300</v>
+        <v>1248658700</v>
       </c>
       <c r="L61">
-        <v>1465438700</v>
+        <v>1344402700</v>
       </c>
       <c r="M61">
-        <v>1194823800</v>
+        <v>1245658400</v>
       </c>
       <c r="N61" s="11">
         <v>1258622400</v>
@@ -4785,37 +4783,37 @@
         <v>6992408100</v>
       </c>
       <c r="C62">
-        <v>3560855800</v>
+        <v>3706085100</v>
       </c>
       <c r="D62">
-        <v>2640938100</v>
+        <v>2719722500</v>
       </c>
       <c r="E62">
-        <v>2237410200</v>
+        <v>1988654300</v>
       </c>
       <c r="F62">
-        <v>1866977500</v>
+        <v>1620689100</v>
       </c>
       <c r="G62">
-        <v>1661646700</v>
+        <v>1452116100</v>
       </c>
       <c r="H62">
-        <v>1526366600</v>
+        <v>1447103600</v>
       </c>
       <c r="I62">
-        <v>1448126100</v>
+        <v>1295560000</v>
       </c>
       <c r="J62">
-        <v>1278933600</v>
+        <v>1284562900</v>
       </c>
       <c r="K62">
-        <v>1275660000</v>
+        <v>1211755200</v>
       </c>
       <c r="L62">
-        <v>1556505400</v>
+        <v>1265614200</v>
       </c>
       <c r="M62">
-        <v>1302549400</v>
+        <v>1186823500</v>
       </c>
       <c r="N62" s="11">
         <v>1353409700</v>
@@ -4829,37 +4827,37 @@
         <v>7285489400</v>
       </c>
       <c r="C63">
-        <v>3458454700</v>
+        <v>3613331200</v>
       </c>
       <c r="D63">
-        <v>2528589000</v>
+        <v>2584062300</v>
       </c>
       <c r="E63">
-        <v>2250405100</v>
+        <v>1864037500</v>
       </c>
       <c r="F63">
-        <v>1793700700</v>
+        <v>1710396700</v>
       </c>
       <c r="G63">
-        <v>1685893700</v>
+        <v>1531900200</v>
       </c>
       <c r="H63">
-        <v>1432515200</v>
+        <v>1415213600</v>
       </c>
       <c r="I63">
-        <v>1360482000</v>
+        <v>1311489600</v>
       </c>
       <c r="J63">
-        <v>1348429100</v>
+        <v>1208766300</v>
       </c>
       <c r="K63">
-        <v>1260155000</v>
+        <v>1231704900</v>
       </c>
       <c r="L63">
-        <v>1561821400</v>
+        <v>1259630500</v>
       </c>
       <c r="M63">
-        <v>1327465700</v>
+        <v>1137954800</v>
       </c>
       <c r="N63" s="11">
         <v>1298560500</v>
@@ -4873,37 +4871,37 @@
         <v>7038420100</v>
       </c>
       <c r="C64">
-        <v>3448828300</v>
+        <v>3530553100</v>
       </c>
       <c r="D64">
-        <v>2683352000</v>
+        <v>2569126500</v>
       </c>
       <c r="E64">
-        <v>2156914900</v>
+        <v>1980700700</v>
       </c>
       <c r="F64">
-        <v>1925950300</v>
+        <v>1622656500</v>
       </c>
       <c r="G64">
-        <v>1616186200</v>
+        <v>1469067700</v>
       </c>
       <c r="H64">
-        <v>1599357600</v>
+        <v>1461090300</v>
       </c>
       <c r="I64">
-        <v>1509004400</v>
+        <v>1332435900</v>
       </c>
       <c r="J64">
-        <v>1278582300</v>
+        <v>1271597800</v>
       </c>
       <c r="K64">
-        <v>1361394800</v>
+        <v>1170857900</v>
       </c>
       <c r="L64">
-        <v>1381469600</v>
+        <v>1376318600</v>
       </c>
       <c r="M64">
-        <v>1202827300</v>
+        <v>1254643800</v>
       </c>
       <c r="N64" s="11">
         <v>1298036100</v>
@@ -4917,37 +4915,37 @@
         <v>6887391100</v>
       </c>
       <c r="C65">
-        <v>3559231000</v>
+        <v>3354001500</v>
       </c>
       <c r="D65">
-        <v>2593061100</v>
+        <v>2572117800</v>
       </c>
       <c r="E65">
-        <v>2129256400</v>
+        <v>1971748300</v>
       </c>
       <c r="F65">
-        <v>1949151000</v>
+        <v>1752314200</v>
       </c>
       <c r="G65">
-        <v>1706829100</v>
+        <v>1565809800</v>
       </c>
       <c r="H65">
-        <v>1449645300</v>
+        <v>1375316500</v>
       </c>
       <c r="I65">
-        <v>1352998800</v>
+        <v>1261624600</v>
       </c>
       <c r="J65">
-        <v>1322476900</v>
+        <v>1215718600</v>
       </c>
       <c r="K65">
-        <v>1290703500</v>
+        <v>1174831200</v>
       </c>
       <c r="L65">
-        <v>1289548800</v>
+        <v>1282568400</v>
       </c>
       <c r="M65">
-        <v>1321464200</v>
+        <v>1135946800</v>
       </c>
       <c r="N65" s="11">
         <v>1321460300</v>
@@ -4961,37 +4959,37 @@
         <v>6852094200</v>
       </c>
       <c r="C66">
-        <v>3590424000</v>
+        <v>3383946400</v>
       </c>
       <c r="D66">
-        <v>2725295700</v>
+        <v>2358713900</v>
       </c>
       <c r="E66">
-        <v>2223322000</v>
+        <v>1914853000</v>
       </c>
       <c r="F66">
-        <v>1914846000</v>
+        <v>1649585100</v>
       </c>
       <c r="G66">
-        <v>1601904800</v>
+        <v>1484999800</v>
       </c>
       <c r="H66">
-        <v>1520933300</v>
+        <v>1461067500</v>
       </c>
       <c r="I66">
-        <v>1409005600</v>
+        <v>1346408500</v>
       </c>
       <c r="J66">
-        <v>1385294400</v>
+        <v>1238686500</v>
       </c>
       <c r="K66">
-        <v>1348561800</v>
+        <v>1212755300</v>
       </c>
       <c r="L66">
-        <v>1344423300</v>
+        <v>1312465100</v>
       </c>
       <c r="M66">
-        <v>1313666300</v>
+        <v>1141944500</v>
       </c>
       <c r="N66" s="11">
         <v>1283636500</v>
@@ -5005,37 +5003,37 @@
         <v>6819603600</v>
       </c>
       <c r="C67">
-        <v>3494210900</v>
+        <v>3457722900</v>
       </c>
       <c r="D67">
-        <v>2843916400</v>
+        <v>2369646000</v>
       </c>
       <c r="E67">
-        <v>2235429400</v>
+        <v>1924825300</v>
       </c>
       <c r="F67">
-        <v>2028717800</v>
+        <v>1655595800</v>
       </c>
       <c r="G67">
-        <v>1680414800</v>
+        <v>1567780000</v>
       </c>
       <c r="H67">
-        <v>1430227100</v>
+        <v>1411198200</v>
       </c>
       <c r="I67">
-        <v>1364052400</v>
+        <v>1274589800</v>
       </c>
       <c r="J67">
-        <v>1321132800</v>
+        <v>1234696700</v>
       </c>
       <c r="K67">
-        <v>1245379800</v>
+        <v>1149905200</v>
       </c>
       <c r="L67">
-        <v>1268658400</v>
+        <v>1382302500</v>
       </c>
       <c r="M67">
-        <v>1313502200</v>
+        <v>1198792400</v>
       </c>
       <c r="N67" s="11">
         <v>1219718500</v>
@@ -5049,37 +5047,37 @@
         <v>7013777600</v>
       </c>
       <c r="C68">
-        <v>3562529700</v>
+        <v>3420870900</v>
       </c>
       <c r="D68">
-        <v>2889268000</v>
+        <v>2416535000</v>
       </c>
       <c r="E68">
-        <v>2181070700</v>
+        <v>2053506000</v>
       </c>
       <c r="F68">
-        <v>1848643200</v>
+        <v>1699452000</v>
       </c>
       <c r="G68">
-        <v>1650583500</v>
+        <v>1525931700</v>
       </c>
       <c r="H68">
-        <v>1603613400</v>
+        <v>1461090400</v>
       </c>
       <c r="I68">
-        <v>1366345100</v>
+        <v>1349371100</v>
       </c>
       <c r="J68">
-        <v>1348530400</v>
+        <v>1284544100</v>
       </c>
       <c r="K68">
-        <v>1279499800</v>
+        <v>1233698700</v>
       </c>
       <c r="L68">
-        <v>1286161300</v>
+        <v>1255615400</v>
       </c>
       <c r="M68">
-        <v>1340413400</v>
+        <v>1140946600</v>
       </c>
       <c r="N68" s="11">
         <v>1351401300</v>
@@ -5093,37 +5091,37 @@
         <v>6910316800</v>
       </c>
       <c r="C69">
-        <v>3461767900</v>
+        <v>3469686900</v>
       </c>
       <c r="D69">
-        <v>2849395100</v>
+        <v>2401601400</v>
       </c>
       <c r="E69">
-        <v>2127904200</v>
+        <v>1894929900</v>
       </c>
       <c r="F69">
-        <v>1838831700</v>
+        <v>1586727900</v>
       </c>
       <c r="G69">
-        <v>1634625700</v>
+        <v>1547858400</v>
       </c>
       <c r="H69">
-        <v>1446635700</v>
+        <v>1410251600</v>
       </c>
       <c r="I69">
-        <v>1378630000</v>
+        <v>1311481600</v>
       </c>
       <c r="J69">
-        <v>1274101600</v>
+        <v>1240680200</v>
       </c>
       <c r="K69">
-        <v>1296491600</v>
+        <v>1175833900</v>
       </c>
       <c r="L69">
-        <v>1360395000</v>
+        <v>1293538800</v>
       </c>
       <c r="M69">
-        <v>1269596800</v>
+        <v>1173854800</v>
       </c>
       <c r="N69" s="11">
         <v>1255659000</v>
@@ -5137,37 +5135,37 @@
         <v>6927489000</v>
       </c>
       <c r="C70">
-        <v>3562467700</v>
+        <v>3398930900</v>
       </c>
       <c r="D70">
-        <v>2923687400</v>
+        <v>2442439300</v>
       </c>
       <c r="E70">
-        <v>2178692300</v>
+        <v>1940780400</v>
       </c>
       <c r="F70">
-        <v>1898643500</v>
+        <v>1719400000</v>
       </c>
       <c r="G70">
-        <v>1699945200</v>
+        <v>1501003600</v>
       </c>
       <c r="H70">
-        <v>1505322100</v>
+        <v>1430171500</v>
       </c>
       <c r="I70">
-        <v>1377171900</v>
+        <v>1363327800</v>
       </c>
       <c r="J70">
-        <v>1365346500</v>
+        <v>1225695900</v>
       </c>
       <c r="K70">
-        <v>1270110300</v>
+        <v>1196775100</v>
       </c>
       <c r="L70">
-        <v>1284581500</v>
+        <v>1295533500</v>
       </c>
       <c r="M70">
-        <v>1282584300</v>
+        <v>1286556700</v>
       </c>
       <c r="N70" s="11">
         <v>1273087700</v>
@@ -5181,37 +5179,37 @@
         <v>6859814300</v>
       </c>
       <c r="C71">
-        <v>3574462800</v>
+        <v>3452734700</v>
       </c>
       <c r="D71">
-        <v>2925678200</v>
+        <v>2372654200</v>
       </c>
       <c r="E71">
-        <v>2227737900</v>
+        <v>1886948600</v>
       </c>
       <c r="F71">
-        <v>2038938200</v>
+        <v>1667537300</v>
       </c>
       <c r="G71">
-        <v>1648575700</v>
+        <v>1505929200</v>
       </c>
       <c r="H71">
-        <v>1474055400</v>
+        <v>1369337400</v>
       </c>
       <c r="I71">
-        <v>1430776100</v>
+        <v>1316477000</v>
       </c>
       <c r="J71">
-        <v>1280628000</v>
+        <v>1322461100</v>
       </c>
       <c r="K71">
-        <v>1313990100</v>
+        <v>1246664500</v>
       </c>
       <c r="L71">
-        <v>1386343800</v>
+        <v>1296531200</v>
       </c>
       <c r="M71">
-        <v>1302545300</v>
+        <v>1141944000</v>
       </c>
       <c r="N71" s="11">
         <v>1338418700</v>
@@ -5225,37 +5223,37 @@
         <v>6827006300</v>
       </c>
       <c r="C72">
-        <v>3510136300</v>
+        <v>3513627500</v>
       </c>
       <c r="D72">
-        <v>3009949200</v>
+        <v>2327795300</v>
       </c>
       <c r="E72">
-        <v>2101645000</v>
+        <v>2001620100</v>
       </c>
       <c r="F72">
-        <v>1891810600</v>
+        <v>1685490100</v>
       </c>
       <c r="G72">
-        <v>1706412300</v>
+        <v>1537894100</v>
       </c>
       <c r="H72">
-        <v>1537904300</v>
+        <v>1438150500</v>
       </c>
       <c r="I72">
-        <v>1344417200</v>
+        <v>1326451300</v>
       </c>
       <c r="J72">
-        <v>1324981200</v>
+        <v>1180840100</v>
       </c>
       <c r="K72">
-        <v>1279103700</v>
+        <v>1158898300</v>
       </c>
       <c r="L72">
-        <v>1307545400</v>
+        <v>1274588200</v>
       </c>
       <c r="M72">
-        <v>1248693400</v>
+        <v>1163885200</v>
       </c>
       <c r="N72" s="11">
         <v>1265660300</v>
@@ -5269,37 +5267,37 @@
         <v>6928925200</v>
       </c>
       <c r="C73">
-        <v>3496268700</v>
+        <v>3384918200</v>
       </c>
       <c r="D73">
-        <v>2887276200</v>
+        <v>2436479200</v>
       </c>
       <c r="E73">
-        <v>2140271200</v>
+        <v>1937815400</v>
       </c>
       <c r="F73">
-        <v>1925883900</v>
+        <v>1732365500</v>
       </c>
       <c r="G73">
-        <v>1622199800</v>
+        <v>1516940300</v>
       </c>
       <c r="H73">
-        <v>1464677000</v>
+        <v>1404241900</v>
       </c>
       <c r="I73">
-        <v>1438154100</v>
+        <v>1292540500</v>
       </c>
       <c r="J73">
-        <v>1325319400</v>
+        <v>1270600200</v>
       </c>
       <c r="K73">
-        <v>1344445100</v>
+        <v>1232683300</v>
       </c>
       <c r="L73">
-        <v>1327942400</v>
+        <v>1281570200</v>
       </c>
       <c r="M73">
-        <v>1330114000</v>
+        <v>1250653500</v>
       </c>
       <c r="N73" s="11">
         <v>1265613600</v>
@@ -5313,37 +5311,37 @@
         <v>6951613400</v>
       </c>
       <c r="C74">
-        <v>3610831700</v>
+        <v>3362029800</v>
       </c>
       <c r="D74">
-        <v>2920185700</v>
+        <v>2449471200</v>
       </c>
       <c r="E74">
-        <v>2237999100</v>
+        <v>1937812500</v>
       </c>
       <c r="F74">
-        <v>1879093300</v>
+        <v>1581743500</v>
       </c>
       <c r="G74">
-        <v>1651542600</v>
+        <v>1574786000</v>
       </c>
       <c r="H74">
-        <v>1582783400</v>
+        <v>1464082800</v>
       </c>
       <c r="I74">
-        <v>1316474200</v>
+        <v>1313466300</v>
       </c>
       <c r="J74">
-        <v>1351905400</v>
+        <v>1242675200</v>
       </c>
       <c r="K74">
-        <v>1253174000</v>
+        <v>1176850000</v>
       </c>
       <c r="L74">
-        <v>1304527000</v>
+        <v>1322459800</v>
       </c>
       <c r="M74">
-        <v>1288568700</v>
+        <v>1175853400</v>
       </c>
       <c r="N74" s="11">
         <v>1327561000</v>
@@ -5357,37 +5355,37 @@
         <v>6993077300</v>
       </c>
       <c r="C75">
-        <v>3472709300</v>
+        <v>3395912700</v>
       </c>
       <c r="D75">
-        <v>2749152500</v>
+        <v>2451439900</v>
       </c>
       <c r="E75">
-        <v>2386160800</v>
+        <v>1984689600</v>
       </c>
       <c r="F75">
-        <v>1872949800</v>
+        <v>1727404300</v>
       </c>
       <c r="G75">
-        <v>1614315000</v>
+        <v>1506992400</v>
       </c>
       <c r="H75">
-        <v>1472754800</v>
+        <v>1390280000</v>
       </c>
       <c r="I75">
-        <v>1412196700</v>
+        <v>1300520700</v>
       </c>
       <c r="J75">
-        <v>1319469600</v>
+        <v>1213752600</v>
       </c>
       <c r="K75">
-        <v>1276616300</v>
+        <v>1188818300</v>
       </c>
       <c r="L75">
-        <v>1285572500</v>
+        <v>1312487400</v>
       </c>
       <c r="M75">
-        <v>1221731700</v>
+        <v>1189792500</v>
       </c>
       <c r="N75" s="11">
         <v>1286611000</v>
@@ -5401,37 +5399,37 @@
         <v>6919118900</v>
       </c>
       <c r="C76">
-        <v>3553036000</v>
+        <v>3329091400</v>
       </c>
       <c r="D76">
-        <v>2586586900</v>
+        <v>2480363500</v>
       </c>
       <c r="E76">
-        <v>2269299100</v>
+        <v>1860022100</v>
       </c>
       <c r="F76">
-        <v>1933487300</v>
+        <v>1671528600</v>
       </c>
       <c r="G76">
-        <v>1629645500</v>
+        <v>1563808300</v>
       </c>
       <c r="H76">
-        <v>1497099900</v>
+        <v>1467073900</v>
       </c>
       <c r="I76">
-        <v>1343356600</v>
+        <v>1357350400</v>
       </c>
       <c r="J76">
-        <v>1327461200</v>
+        <v>1321464900</v>
       </c>
       <c r="K76">
-        <v>1304621800</v>
+        <v>1206772700</v>
       </c>
       <c r="L76">
-        <v>1356371700</v>
+        <v>1273591700</v>
       </c>
       <c r="M76">
-        <v>1307502200</v>
+        <v>1231704000</v>
       </c>
       <c r="N76" s="11">
         <v>1315531900</v>
@@ -5445,37 +5443,37 @@
         <v>6985889600</v>
       </c>
       <c r="C77">
-        <v>3406456800</v>
+        <v>3329117500</v>
       </c>
       <c r="D77">
-        <v>2718748600</v>
+        <v>2457424800</v>
       </c>
       <c r="E77">
-        <v>2172432400</v>
+        <v>1888946400</v>
       </c>
       <c r="F77">
-        <v>1923180500</v>
+        <v>1653549700</v>
       </c>
       <c r="G77">
-        <v>1683624700</v>
+        <v>1467072800</v>
       </c>
       <c r="H77">
-        <v>1492352300</v>
+        <v>1435160000</v>
       </c>
       <c r="I77">
-        <v>1428197400</v>
+        <v>1325453200</v>
       </c>
       <c r="J77">
-        <v>1361864100</v>
+        <v>1220709000</v>
       </c>
       <c r="K77">
-        <v>1234735000</v>
+        <v>1172840200</v>
       </c>
       <c r="L77">
-        <v>1243687800</v>
+        <v>1297529400</v>
       </c>
       <c r="M77">
-        <v>1236580000</v>
+        <v>1128980300</v>
       </c>
       <c r="N77" s="11">
         <v>1311069400</v>
@@ -5489,37 +5487,37 @@
         <v>7095780900</v>
       </c>
       <c r="C78">
-        <v>3449742900</v>
+        <v>3378957500</v>
       </c>
       <c r="D78">
-        <v>2926675100</v>
+        <v>2425509500</v>
       </c>
       <c r="E78">
-        <v>2154335900</v>
+        <v>2032587100</v>
       </c>
       <c r="F78">
-        <v>1950224000</v>
+        <v>1772258100</v>
       </c>
       <c r="G78">
-        <v>1595731600</v>
+        <v>1573776000</v>
       </c>
       <c r="H78">
-        <v>1532312700</v>
+        <v>1484029900</v>
       </c>
       <c r="I78">
-        <v>1370988500</v>
+        <v>1272569500</v>
       </c>
       <c r="J78">
-        <v>1273756200</v>
+        <v>1256617700</v>
       </c>
       <c r="K78">
-        <v>1337421700</v>
+        <v>1235693900</v>
       </c>
       <c r="L78">
-        <v>1356406700</v>
+        <v>1230706900</v>
       </c>
       <c r="M78">
-        <v>1274588600</v>
+        <v>1308499200</v>
       </c>
       <c r="N78" s="11">
         <v>1311803300</v>
@@ -5533,37 +5531,37 @@
         <v>7422333100</v>
       </c>
       <c r="C79">
-        <v>3507175400</v>
+        <v>3372975400</v>
       </c>
       <c r="D79">
-        <v>2857888500</v>
+        <v>2363656200</v>
       </c>
       <c r="E79">
-        <v>2296165600</v>
+        <v>1881967000</v>
       </c>
       <c r="F79">
-        <v>1976028400</v>
+        <v>1613683500</v>
       </c>
       <c r="G79">
-        <v>1641606800</v>
+        <v>1492011300</v>
       </c>
       <c r="H79">
-        <v>1502096900</v>
+        <v>1381277300</v>
       </c>
       <c r="I79">
-        <v>1391276200</v>
+        <v>1324455600</v>
       </c>
       <c r="J79">
-        <v>1361105600</v>
+        <v>1190813100</v>
       </c>
       <c r="K79">
-        <v>1247654000</v>
+        <v>1195801200</v>
       </c>
       <c r="L79">
-        <v>1355415400</v>
+        <v>1286558100</v>
       </c>
       <c r="M79">
-        <v>1374325200</v>
+        <v>1328446100</v>
       </c>
       <c r="N79" s="11">
         <v>1263640300</v>
@@ -5577,37 +5575,37 @@
         <v>7350018700</v>
       </c>
       <c r="C80">
-        <v>3591376900</v>
+        <v>3359014600</v>
       </c>
       <c r="D80">
-        <v>2833417700</v>
+        <v>2281894100</v>
       </c>
       <c r="E80">
-        <v>2152517200</v>
+        <v>1930832500</v>
       </c>
       <c r="F80">
-        <v>1858902700</v>
+        <v>1716407400</v>
       </c>
       <c r="G80">
-        <v>1575760900</v>
+        <v>1542896200</v>
       </c>
       <c r="H80">
-        <v>1561333100</v>
+        <v>1476049900</v>
       </c>
       <c r="I80">
-        <v>1353457800</v>
+        <v>1316477200</v>
       </c>
       <c r="J80">
-        <v>1303511500</v>
+        <v>1245638200</v>
       </c>
       <c r="K80">
-        <v>1275729400</v>
+        <v>1210735600</v>
       </c>
       <c r="L80">
-        <v>1321500500</v>
+        <v>1344403100</v>
       </c>
       <c r="M80">
-        <v>1200788000</v>
+        <v>1202780900</v>
       </c>
       <c r="N80" s="11">
         <v>1290563600</v>
@@ -5621,37 +5619,37 @@
         <v>7378347300</v>
       </c>
       <c r="C81">
-        <v>3507960000</v>
+        <v>3526563700</v>
       </c>
       <c r="D81">
-        <v>2666775100</v>
+        <v>2374647700</v>
       </c>
       <c r="E81">
-        <v>2126144800</v>
+        <v>1947756000</v>
       </c>
       <c r="F81">
-        <v>1898498700</v>
+        <v>1645572900</v>
       </c>
       <c r="G81">
-        <v>1675516500</v>
+        <v>1525898300</v>
       </c>
       <c r="H81">
-        <v>1612248800</v>
+        <v>1357368300</v>
       </c>
       <c r="I81">
-        <v>1395137900</v>
+        <v>1315452400</v>
       </c>
       <c r="J81">
-        <v>1400252800</v>
+        <v>1205773500</v>
       </c>
       <c r="K81">
-        <v>1320466000</v>
+        <v>1198793200</v>
       </c>
       <c r="L81">
-        <v>1314009400</v>
+        <v>1278559400</v>
       </c>
       <c r="M81">
-        <v>1389316000</v>
+        <v>1297529900</v>
       </c>
       <c r="N81" s="11">
         <v>1269635500</v>
@@ -5665,37 +5663,37 @@
         <v>7035436600</v>
       </c>
       <c r="C82">
-        <v>3574791900</v>
+        <v>3396912200</v>
       </c>
       <c r="D82">
-        <v>2584645000</v>
+        <v>2417532300</v>
       </c>
       <c r="E82">
-        <v>2329346700</v>
+        <v>1922854700</v>
       </c>
       <c r="F82">
-        <v>2049284100</v>
+        <v>1652575900</v>
       </c>
       <c r="G82">
-        <v>1661528900</v>
+        <v>1556835200</v>
       </c>
       <c r="H82">
-        <v>1597865300</v>
+        <v>1522924600</v>
       </c>
       <c r="I82">
-        <v>1348001100</v>
+        <v>1275585700</v>
       </c>
       <c r="J82">
-        <v>1278122900</v>
+        <v>1222728300</v>
       </c>
       <c r="K82">
-        <v>1237886500</v>
+        <v>1177824900</v>
       </c>
       <c r="L82">
-        <v>1255218400</v>
+        <v>1383299300</v>
       </c>
       <c r="M82">
-        <v>1313535800</v>
+        <v>1322461800</v>
       </c>
       <c r="N82" s="11">
         <v>1339417700</v>
@@ -5709,37 +5707,37 @@
         <v>6968776800</v>
       </c>
       <c r="C83">
-        <v>3603920000</v>
+        <v>3368961000</v>
       </c>
       <c r="D83">
-        <v>2573114900</v>
+        <v>2397584600</v>
       </c>
       <c r="E83">
-        <v>2275858200</v>
+        <v>1976734100</v>
       </c>
       <c r="F83">
-        <v>1918228400</v>
+        <v>1725376000</v>
       </c>
       <c r="G83">
-        <v>1689478800</v>
+        <v>1532901000</v>
       </c>
       <c r="H83">
-        <v>1610295900</v>
+        <v>1393271600</v>
       </c>
       <c r="I83">
-        <v>1373289700</v>
+        <v>1354376100</v>
       </c>
       <c r="J83">
-        <v>1337410400</v>
+        <v>1263618200</v>
       </c>
       <c r="K83">
-        <v>1316003600</v>
+        <v>1232701800</v>
       </c>
       <c r="L83">
-        <v>1361356300</v>
+        <v>1345399900</v>
       </c>
       <c r="M83">
-        <v>1217755300</v>
+        <v>1210760500</v>
       </c>
       <c r="N83" s="11">
         <v>1293541800</v>
@@ -5753,37 +5751,37 @@
         <v>6871779000</v>
       </c>
       <c r="C84">
-        <v>3727477600</v>
+        <v>3347044200</v>
       </c>
       <c r="D84">
-        <v>2669879200</v>
+        <v>2408579800</v>
       </c>
       <c r="E84">
-        <v>2332481200</v>
+        <v>2013605700</v>
       </c>
       <c r="F84">
-        <v>1979418000</v>
+        <v>1610690800</v>
       </c>
       <c r="G84">
-        <v>1654572800</v>
+        <v>1559826300</v>
       </c>
       <c r="H84">
-        <v>1582013000</v>
+        <v>1465080100</v>
       </c>
       <c r="I84">
-        <v>1421334600</v>
+        <v>1314463600</v>
       </c>
       <c r="J84">
-        <v>1329443100</v>
+        <v>1224722200</v>
       </c>
       <c r="K84">
-        <v>1260608000</v>
+        <v>1188818500</v>
       </c>
       <c r="L84">
-        <v>1254701800</v>
+        <v>1421196300</v>
       </c>
       <c r="M84">
-        <v>1308997700</v>
+        <v>1276584500</v>
       </c>
       <c r="N84" s="11">
         <v>1274620700</v>
@@ -5797,37 +5795,37 @@
         <v>6905661100</v>
       </c>
       <c r="C85">
-        <v>3800410700</v>
+        <v>3382924400</v>
       </c>
       <c r="D85">
-        <v>2537236200</v>
+        <v>2413515900</v>
       </c>
       <c r="E85">
-        <v>2161536000</v>
+        <v>1944822400</v>
       </c>
       <c r="F85">
-        <v>1989945800</v>
+        <v>1759292400</v>
       </c>
       <c r="G85">
-        <v>1621350900</v>
+        <v>1527911200</v>
       </c>
       <c r="H85">
-        <v>1592807900</v>
+        <v>1393247600</v>
       </c>
       <c r="I85">
-        <v>1371347100</v>
+        <v>1326449400</v>
       </c>
       <c r="J85">
-        <v>1276604100</v>
+        <v>1337421200</v>
       </c>
       <c r="K85">
-        <v>1295062400</v>
+        <v>1245666700</v>
       </c>
       <c r="L85">
-        <v>1317530700</v>
+        <v>1318473400</v>
       </c>
       <c r="M85">
-        <v>1279577500</v>
+        <v>1298516000</v>
       </c>
       <c r="N85" s="11">
         <v>1330440200</v>
@@ -5841,37 +5839,37 @@
         <v>6940452100</v>
       </c>
       <c r="C86">
-        <v>3800018200</v>
+        <v>3422841600</v>
       </c>
       <c r="D86">
-        <v>2628553400</v>
+        <v>2417531900</v>
       </c>
       <c r="E86">
-        <v>2240004500</v>
+        <v>1920836300</v>
       </c>
       <c r="F86">
-        <v>1841542800</v>
+        <v>1728351100</v>
       </c>
       <c r="G86">
-        <v>1638623200</v>
+        <v>1545861900</v>
       </c>
       <c r="H86">
-        <v>1503973100</v>
+        <v>1437154700</v>
       </c>
       <c r="I86">
-        <v>1392066600</v>
+        <v>1284587400</v>
       </c>
       <c r="J86">
-        <v>1330475600</v>
+        <v>1201785100</v>
       </c>
       <c r="K86">
-        <v>1276113600</v>
+        <v>1194803900</v>
       </c>
       <c r="L86">
-        <v>1344927500</v>
+        <v>1269603100</v>
       </c>
       <c r="M86">
-        <v>1207785300</v>
+        <v>1307476100</v>
       </c>
       <c r="N86" s="11">
         <v>1201801000</v>
@@ -5885,37 +5883,37 @@
         <v>6870294200</v>
       </c>
       <c r="C87">
-        <v>3547569000</v>
+        <v>3387935700</v>
       </c>
       <c r="D87">
-        <v>2574136900</v>
+        <v>2341734500</v>
       </c>
       <c r="E87">
-        <v>2241318900</v>
+        <v>1915873300</v>
       </c>
       <c r="F87">
-        <v>1886672800</v>
+        <v>1605703700</v>
       </c>
       <c r="G87">
-        <v>1532890800</v>
+        <v>1597724200</v>
       </c>
       <c r="H87">
-        <v>1651659800</v>
+        <v>1410210600</v>
       </c>
       <c r="I87">
-        <v>1345334000</v>
+        <v>1330421600</v>
       </c>
       <c r="J87">
-        <v>1298054300</v>
+        <v>1252636100</v>
       </c>
       <c r="K87">
-        <v>1262499100</v>
+        <v>1206751100</v>
       </c>
       <c r="L87">
-        <v>1241678300</v>
+        <v>1270599000</v>
       </c>
       <c r="M87">
-        <v>1344477600</v>
+        <v>1286555900</v>
       </c>
       <c r="N87" s="11">
         <v>1256637500</v>
@@ -5929,37 +5927,37 @@
         <v>6954618600</v>
       </c>
       <c r="C88">
-        <v>3431326100</v>
+        <v>3292230400</v>
       </c>
       <c r="D88">
-        <v>2546667700</v>
+        <v>2358689100</v>
       </c>
       <c r="E88">
-        <v>2157950100</v>
+        <v>1997629000</v>
       </c>
       <c r="F88">
-        <v>1928048200</v>
+        <v>1718402300</v>
       </c>
       <c r="G88">
-        <v>1691509200</v>
+        <v>1504999500</v>
       </c>
       <c r="H88">
-        <v>1500533100</v>
+        <v>1429183900</v>
       </c>
       <c r="I88">
-        <v>1388875700</v>
+        <v>1303531500</v>
       </c>
       <c r="J88">
-        <v>1422844600</v>
+        <v>1239682800</v>
       </c>
       <c r="K88">
-        <v>1373344000</v>
+        <v>1243669800</v>
       </c>
       <c r="L88">
-        <v>1341385500</v>
+        <v>1247661700</v>
       </c>
       <c r="M88">
-        <v>1273434900</v>
+        <v>1304510000</v>
       </c>
       <c r="N88" s="11">
         <v>1315987200</v>
@@ -5973,37 +5971,37 @@
         <v>6959596600</v>
       </c>
       <c r="C89">
-        <v>3518099200</v>
+        <v>3310119100</v>
       </c>
       <c r="D89">
-        <v>2562996700</v>
+        <v>2400576000</v>
       </c>
       <c r="E89">
-        <v>2083274400</v>
+        <v>1915872500</v>
       </c>
       <c r="F89">
-        <v>1817371100</v>
+        <v>1627653300</v>
       </c>
       <c r="G89">
-        <v>1685492000</v>
+        <v>1560824000</v>
       </c>
       <c r="H89">
-        <v>1580296200</v>
+        <v>1434162200</v>
       </c>
       <c r="I89">
-        <v>1366754100</v>
+        <v>1310494100</v>
       </c>
       <c r="J89">
-        <v>1278579300</v>
+        <v>1199789400</v>
       </c>
       <c r="K89">
-        <v>1221775300</v>
+        <v>1161866100</v>
       </c>
       <c r="L89">
-        <v>1269102000</v>
+        <v>1292541400</v>
       </c>
       <c r="M89">
-        <v>1275583000</v>
+        <v>1224722100</v>
       </c>
       <c r="N89" s="11">
         <v>1224808600</v>
@@ -6017,37 +6015,37 @@
         <v>6929032100</v>
       </c>
       <c r="C90">
-        <v>3769835300</v>
+        <v>3480687500</v>
       </c>
       <c r="D90">
-        <v>2581651100</v>
+        <v>2346695000</v>
       </c>
       <c r="E90">
-        <v>2285051800</v>
+        <v>2057467900</v>
       </c>
       <c r="F90">
-        <v>2029970100</v>
+        <v>1763281700</v>
       </c>
       <c r="G90">
-        <v>1629172000</v>
+        <v>1483007100</v>
       </c>
       <c r="H90">
-        <v>1442566100</v>
+        <v>1448125100</v>
       </c>
       <c r="I90">
-        <v>1419221700</v>
+        <v>1308497900</v>
       </c>
       <c r="J90">
-        <v>1357401100</v>
+        <v>1274590100</v>
       </c>
       <c r="K90">
-        <v>1339902900</v>
+        <v>1221706100</v>
       </c>
       <c r="L90">
-        <v>1334428500</v>
+        <v>1363370700</v>
       </c>
       <c r="M90">
-        <v>1330439800</v>
+        <v>1332434100</v>
       </c>
       <c r="N90" s="11">
         <v>1385302300</v>
@@ -6061,37 +6059,37 @@
         <v>6895392000</v>
       </c>
       <c r="C91">
-        <v>3436097800</v>
+        <v>3451762300</v>
       </c>
       <c r="D91">
-        <v>2693276500</v>
+        <v>2467399900</v>
       </c>
       <c r="E91">
-        <v>2323185900</v>
+        <v>2103371400</v>
       </c>
       <c r="F91">
-        <v>2090861700</v>
+        <v>1702445100</v>
       </c>
       <c r="G91">
-        <v>1656722100</v>
+        <v>1574785900</v>
       </c>
       <c r="H91">
-        <v>1515924200</v>
+        <v>1413193800</v>
       </c>
       <c r="I91">
-        <v>1386950400</v>
+        <v>1306475900</v>
       </c>
       <c r="J91">
-        <v>1275606000</v>
+        <v>1202781500</v>
       </c>
       <c r="K91">
-        <v>1242674700</v>
+        <v>1173860100</v>
       </c>
       <c r="L91">
-        <v>1306504600</v>
+        <v>1247662600</v>
       </c>
       <c r="M91">
-        <v>1194308000</v>
+        <v>1278553100</v>
       </c>
       <c r="N91" s="11">
         <v>1280574300</v>
@@ -6105,37 +6103,37 @@
         <v>6939670700</v>
       </c>
       <c r="C92">
-        <v>3516903800</v>
+        <v>3315105200</v>
       </c>
       <c r="D92">
-        <v>2545189700</v>
+        <v>2536238400</v>
       </c>
       <c r="E92">
-        <v>2344124900</v>
+        <v>2153234400</v>
       </c>
       <c r="F92">
-        <v>1843151800</v>
+        <v>1606701300</v>
       </c>
       <c r="G92">
-        <v>1600955600</v>
+        <v>1483031900</v>
       </c>
       <c r="H92">
-        <v>1446129700</v>
+        <v>1466051600</v>
       </c>
       <c r="I92">
-        <v>1454131400</v>
+        <v>1332433300</v>
       </c>
       <c r="J92">
-        <v>1283586600</v>
+        <v>1292515300</v>
       </c>
       <c r="K92">
-        <v>1281304100</v>
+        <v>1175854100</v>
       </c>
       <c r="L92">
-        <v>1280589000</v>
+        <v>1271597500</v>
       </c>
       <c r="M92">
-        <v>1238194100</v>
+        <v>1233685600</v>
       </c>
       <c r="N92" s="11">
         <v>1195872900</v>
@@ -6149,37 +6147,37 @@
         <v>6850163000</v>
       </c>
       <c r="C93">
-        <v>3478251500</v>
+        <v>3339066100</v>
       </c>
       <c r="D93">
-        <v>2614009800</v>
+        <v>2485323500</v>
       </c>
       <c r="E93">
-        <v>2247623100</v>
+        <v>2077411400</v>
       </c>
       <c r="F93">
-        <v>2034766600</v>
+        <v>1691473500</v>
       </c>
       <c r="G93">
-        <v>1658581100</v>
+        <v>1543867500</v>
       </c>
       <c r="H93">
-        <v>1562342800</v>
+        <v>1391276200</v>
       </c>
       <c r="I93">
-        <v>1345931900</v>
+        <v>1251631900</v>
       </c>
       <c r="J93">
-        <v>1319469300</v>
+        <v>1219757600</v>
       </c>
       <c r="K93">
-        <v>1283323100</v>
+        <v>1233698900</v>
       </c>
       <c r="L93">
-        <v>1333431800</v>
+        <v>1258632600</v>
       </c>
       <c r="M93">
-        <v>1354411100</v>
+        <v>1336423800</v>
       </c>
       <c r="N93" s="11">
         <v>1304642000</v>
@@ -6193,37 +6191,37 @@
         <v>7016260500</v>
       </c>
       <c r="C94">
-        <v>3418855800</v>
+        <v>3400901600</v>
       </c>
       <c r="D94">
-        <v>2650408500</v>
+        <v>2413517200</v>
       </c>
       <c r="E94">
-        <v>2240345700</v>
+        <v>2067468500</v>
       </c>
       <c r="F94">
-        <v>1893219500</v>
+        <v>1600717900</v>
       </c>
       <c r="G94">
-        <v>1593734700</v>
+        <v>1541849500</v>
       </c>
       <c r="H94">
-        <v>1483027900</v>
+        <v>1418194900</v>
       </c>
       <c r="I94">
-        <v>1403044400</v>
+        <v>1351352400</v>
       </c>
       <c r="J94">
-        <v>1298987500</v>
+        <v>1239664400</v>
       </c>
       <c r="K94">
-        <v>1268496300</v>
+        <v>1165880400</v>
       </c>
       <c r="L94">
-        <v>1379020500</v>
+        <v>1264615700</v>
       </c>
       <c r="M94">
-        <v>1185862000</v>
+        <v>1307501000</v>
       </c>
       <c r="N94" s="11">
         <v>1258618900</v>
@@ -6237,37 +6235,37 @@
         <v>6877583700</v>
       </c>
       <c r="C95">
-        <v>3483214500</v>
+        <v>3376964500</v>
       </c>
       <c r="D95">
-        <v>2608538600</v>
+        <v>2423487300</v>
       </c>
       <c r="E95">
-        <v>2304118800</v>
+        <v>1978705100</v>
       </c>
       <c r="F95">
-        <v>1923392500</v>
+        <v>1709402000</v>
       </c>
       <c r="G95">
-        <v>1717380500</v>
+        <v>1510958900</v>
       </c>
       <c r="H95">
-        <v>1524893200</v>
+        <v>1391253600</v>
       </c>
       <c r="I95">
-        <v>1360642300</v>
+        <v>1256620200</v>
       </c>
       <c r="J95">
-        <v>1355897400</v>
+        <v>1221730900</v>
       </c>
       <c r="K95">
-        <v>1377275600</v>
+        <v>1262622000</v>
       </c>
       <c r="L95">
-        <v>1351355000</v>
+        <v>1271597600</v>
       </c>
       <c r="M95">
-        <v>1274588900</v>
+        <v>1218714000</v>
       </c>
       <c r="N95" s="11">
         <v>1299510900</v>
@@ -6281,37 +6279,37 @@
         <v>6791842900</v>
       </c>
       <c r="C96">
-        <v>3507490900</v>
+        <v>3557480100</v>
       </c>
       <c r="D96">
-        <v>2559153600</v>
+        <v>2407558200</v>
       </c>
       <c r="E96">
-        <v>2437808800</v>
+        <v>1955768100</v>
       </c>
       <c r="F96">
-        <v>2001893400</v>
+        <v>1694439700</v>
       </c>
       <c r="G96">
-        <v>1638527100</v>
+        <v>1545839400</v>
       </c>
       <c r="H96">
-        <v>1485366900</v>
+        <v>1478043000</v>
       </c>
       <c r="I96">
-        <v>1386138600</v>
+        <v>1355372700</v>
       </c>
       <c r="J96">
-        <v>1367867200</v>
+        <v>1216743800</v>
       </c>
       <c r="K96">
-        <v>1499332500</v>
+        <v>1177848600</v>
       </c>
       <c r="L96">
-        <v>1274973500</v>
+        <v>1302514000</v>
       </c>
       <c r="M96">
-        <v>1299522400</v>
+        <v>1273591200</v>
       </c>
       <c r="N96" s="11">
         <v>1326956000</v>
@@ -6325,37 +6323,37 @@
         <v>7043250100</v>
       </c>
       <c r="C97">
-        <v>3487129800</v>
+        <v>3700124900</v>
       </c>
       <c r="D97">
-        <v>2618554100</v>
+        <v>2401574200</v>
       </c>
       <c r="E97">
-        <v>2591083800</v>
+        <v>1943799600</v>
       </c>
       <c r="F97">
-        <v>1923710100</v>
+        <v>1666541200</v>
       </c>
       <c r="G97">
-        <v>1666586600</v>
+        <v>1468071400</v>
       </c>
       <c r="H97">
-        <v>1594751900</v>
+        <v>1362354200</v>
       </c>
       <c r="I97">
-        <v>1362055100</v>
+        <v>1326469800</v>
       </c>
       <c r="J97">
-        <v>1437147900</v>
+        <v>1283565200</v>
       </c>
       <c r="K97">
-        <v>1437894700</v>
+        <v>1172861200</v>
       </c>
       <c r="L97">
-        <v>1272590400</v>
+        <v>1254625000</v>
       </c>
       <c r="M97">
-        <v>1311526900</v>
+        <v>1252648100</v>
       </c>
       <c r="N97" s="11">
         <v>1274606100</v>
@@ -6369,37 +6367,37 @@
         <v>6836107200</v>
       </c>
       <c r="C98">
-        <v>3702200100</v>
+        <v>3720045200</v>
       </c>
       <c r="D98">
-        <v>2567387500</v>
+        <v>2436480800</v>
       </c>
       <c r="E98">
-        <v>2441138000</v>
+        <v>2014608900</v>
       </c>
       <c r="F98">
-        <v>1949085400</v>
+        <v>1723388200</v>
       </c>
       <c r="G98">
-        <v>1595730300</v>
+        <v>1573792000</v>
       </c>
       <c r="H98">
-        <v>1515946600</v>
+        <v>1477023300</v>
       </c>
       <c r="I98">
-        <v>1381425400</v>
+        <v>1345400300</v>
       </c>
       <c r="J98">
-        <v>1271109000</v>
+        <v>1184829400</v>
       </c>
       <c r="K98">
-        <v>1360272000</v>
+        <v>1225720000</v>
       </c>
       <c r="L98">
-        <v>1294578600</v>
+        <v>1271597300</v>
       </c>
       <c r="M98">
-        <v>1301510000</v>
+        <v>1226718700</v>
       </c>
       <c r="N98" s="11">
         <v>1279596100</v>
@@ -6413,37 +6411,37 @@
         <v>6920149400</v>
       </c>
       <c r="C99">
-        <v>3613451300</v>
+        <v>3737002000</v>
       </c>
       <c r="D99">
-        <v>2593345000</v>
+        <v>2361680700</v>
       </c>
       <c r="E99">
-        <v>2411523800</v>
+        <v>1919863500</v>
       </c>
       <c r="F99">
-        <v>1981517200</v>
+        <v>1615652700</v>
       </c>
       <c r="G99">
-        <v>1664481900</v>
+        <v>1459071800</v>
       </c>
       <c r="H99">
-        <v>1532412300</v>
+        <v>1397261700</v>
       </c>
       <c r="I99">
-        <v>1404242200</v>
+        <v>1331435200</v>
       </c>
       <c r="J99">
-        <v>1327429000</v>
+        <v>1284537600</v>
       </c>
       <c r="K99">
-        <v>1520051000</v>
+        <v>1152896900</v>
       </c>
       <c r="L99">
-        <v>1309516000</v>
+        <v>1301518300</v>
       </c>
       <c r="M99">
-        <v>1288068300</v>
+        <v>1325454500</v>
       </c>
       <c r="N99" s="11">
         <v>1349897500</v>
@@ -6457,37 +6455,37 @@
         <v>6902370300</v>
       </c>
       <c r="C100">
-        <v>3501673100</v>
+        <v>3672199800</v>
       </c>
       <c r="D100">
-        <v>2517810000</v>
+        <v>2473381200</v>
       </c>
       <c r="E100">
-        <v>2400911100</v>
+        <v>1922856700</v>
       </c>
       <c r="F100">
-        <v>1886812100</v>
+        <v>1677536200</v>
       </c>
       <c r="G100">
-        <v>1687992600</v>
+        <v>1591740200</v>
       </c>
       <c r="H100">
-        <v>1469068600</v>
+        <v>1435132300</v>
       </c>
       <c r="I100">
-        <v>1357289200</v>
+        <v>1310466800</v>
       </c>
       <c r="J100">
-        <v>1332452900</v>
+        <v>1263618600</v>
       </c>
       <c r="K100">
-        <v>1390392100</v>
+        <v>1206771100</v>
       </c>
       <c r="L100">
-        <v>1291562000</v>
+        <v>1253645400</v>
       </c>
       <c r="M100">
-        <v>1252667500</v>
+        <v>1240678600</v>
       </c>
       <c r="N100" s="11">
         <v>1289548000</v>
@@ -6501,37 +6499,37 @@
         <v>6921845000</v>
       </c>
       <c r="C101">
-        <v>3442791800</v>
+        <v>3728999400</v>
       </c>
       <c r="D101">
-        <v>2602554100</v>
+        <v>2503303100</v>
       </c>
       <c r="E101">
-        <v>2294866900</v>
+        <v>1917868900</v>
       </c>
       <c r="F101">
-        <v>1963083800</v>
+        <v>1680478600</v>
       </c>
       <c r="G101">
-        <v>1647571300</v>
+        <v>1473083700</v>
       </c>
       <c r="H101">
-        <v>1531213400</v>
+        <v>1401250700</v>
       </c>
       <c r="I101">
-        <v>1394924700</v>
+        <v>1297546700</v>
       </c>
       <c r="J101">
-        <v>1295545200</v>
+        <v>1243672400</v>
       </c>
       <c r="K101">
-        <v>1485110600</v>
+        <v>1181837800</v>
       </c>
       <c r="L101">
-        <v>1326098800</v>
+        <v>1263619100</v>
       </c>
       <c r="M101">
-        <v>1336424600</v>
+        <v>1334403300</v>
       </c>
       <c r="N101" s="11">
         <v>1282568400</v>
@@ -6545,37 +6543,37 @@
         <v>6892401300</v>
       </c>
       <c r="C102">
-        <v>3556015100</v>
+        <v>3654223100</v>
       </c>
       <c r="D102">
-        <v>2692770200</v>
+        <v>2410548500</v>
       </c>
       <c r="E102">
-        <v>2263085500</v>
+        <v>2033558500</v>
       </c>
       <c r="F102">
-        <v>1907655500</v>
+        <v>1738348300</v>
       </c>
       <c r="G102">
-        <v>1799688000</v>
+        <v>1592737600</v>
       </c>
       <c r="H102">
-        <v>1492644000</v>
+        <v>1457076800</v>
       </c>
       <c r="I102">
-        <v>1340417200</v>
+        <v>1300511900</v>
       </c>
       <c r="J102">
-        <v>1315008300</v>
+        <v>1263615300</v>
       </c>
       <c r="K102">
-        <v>1407177100</v>
+        <v>1183832700</v>
       </c>
       <c r="L102">
-        <v>1265614300</v>
+        <v>1303512000</v>
       </c>
       <c r="M102">
-        <v>1294099800</v>
+        <v>1275586700</v>
       </c>
       <c r="N102" s="11">
         <v>1314839700</v>
@@ -6589,37 +6587,37 @@
         <v>6961679800</v>
       </c>
       <c r="C103" s="13">
-        <v>3540908600</v>
+        <v>3483679500</v>
       </c>
       <c r="D103" s="13">
-        <v>2541203600</v>
+        <v>2359684900</v>
       </c>
       <c r="E103" s="13">
-        <v>2256114900</v>
+        <v>1925821400</v>
       </c>
       <c r="F103" s="13">
-        <v>1974184300</v>
+        <v>1844066500</v>
       </c>
       <c r="G103" s="13">
-        <v>1626030900</v>
+        <v>1529906300</v>
       </c>
       <c r="H103" s="13">
-        <v>1577690800</v>
+        <v>1406236500</v>
       </c>
       <c r="I103" s="13">
-        <v>1391042900</v>
+        <v>1337421000</v>
       </c>
       <c r="J103" s="13">
-        <v>1343444500</v>
+        <v>1166878000</v>
       </c>
       <c r="K103" s="13">
-        <v>1532860800</v>
+        <v>1243672600</v>
       </c>
       <c r="L103" s="13">
-        <v>1334430100</v>
+        <v>1230706800</v>
       </c>
       <c r="M103" s="13">
-        <v>1243665900</v>
+        <v>1204776600</v>
       </c>
       <c r="N103" s="14">
         <v>1225718800</v>
